--- a/auto/list/panjalu/list_kertamandala.xlsx
+++ b/auto/list/panjalu/list_kertamandala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t>NO</t>
   </si>
@@ -41,1438 +41,1315 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>2024-12-01</t>
-  </si>
-  <si>
-    <t>NABILA MAULIKA SANIAH</t>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>ANA MARYANA</t>
+  </si>
+  <si>
+    <t>Tembong</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Kertamandala</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan gender dalam partisipasi politik dan ekonomi, merugikan potensi masyarakat pedesaan secara keseluruhan.</t>
+  </si>
+  <si>
+    <t>NAJIB AHMAD MUNAWAR</t>
   </si>
   <si>
     <t>Kertabaya</t>
   </si>
   <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Akses terhadap pendidikan berkualitas yang terbatas membuat banyak anak dari keluarga kurang mampu tidak bisa melanjutkan pendidikan ke jenjang yang lebih tinggi.</t>
+  </si>
+  <si>
+    <t>ENOK ULFAH</t>
+  </si>
+  <si>
+    <t>Banjar</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Dukungan bagi industri pertanian organik untuk meningkatkan kualitas dan keamanan makanan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>H IDI RAPIDI</t>
+  </si>
+  <si>
+    <t>Reumaleuga</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Kurangnya kesadaran akan isu-isu sosial, menghambat upaya pembangunan masyarakat yang inklusif.</t>
+  </si>
+  <si>
+    <t>RUNISAH</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat penampungan untuk hewan jalanan di jalan.</t>
+  </si>
+  <si>
+    <t>TIARA RAMDANIA</t>
+  </si>
+  <si>
+    <t>Cibungur</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Maraknya kekerasan dan kriminalitas, menciptakan rasa takut dan tidak aman di lingkungan sekitar.</t>
+  </si>
+  <si>
+    <t>EHAT HAYATUN</t>
+  </si>
+  <si>
+    <t>Program penghijauan atap bangunan untuk mengurangi efek pemanasan kota.</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>ANDI SURYANA</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Kurangnya bantuan modal dari pemerintah membuat banyak usaha kecil kesulitan bertahan. Bantuan modal diperlukan agar mereka bisa berkembang lebih baik.</t>
+  </si>
+  <si>
+    <t>MAKIAH</t>
+  </si>
+  <si>
+    <t>Mandala</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program peningkatan literasi finansial di kalangan masyarakat kami.</t>
+  </si>
+  <si>
+    <t>NINGSIH</t>
+  </si>
+  <si>
+    <t>Masalah sanitasi yang buruk di daerah kumuh menyebabkan penyebaran penyakit dan menurunkan kualitas hidup warga yang tinggal di sana.</t>
+  </si>
+  <si>
+    <t>SAMI</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Saya sebagai warga melaporkan permasalahan ekonomi di lingkungan kami. Banyak dari kami kesulitan mencari pekerjaan dan merasakan beban ekonomi yang berat.</t>
+  </si>
+  <si>
+    <t>CARSIAH</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Listrik sering mati, mengganggu kegiatan sehari-hari kami.</t>
+  </si>
+  <si>
+    <t>MUHAMAD ZAMZAM MUBAROK</t>
+  </si>
+  <si>
+    <t>Kami berharap adanya program perbaikan dan pemeliharaan sarana olahraga yang sudah ada di wilayah kami.</t>
+  </si>
+  <si>
+    <t>DARA AMELIA</t>
+  </si>
+  <si>
+    <t>Kesenjangan ekonomi semakin terasa karena distribusi sumber daya yang tidak merata, membuat daerah tertinggal sulit mengejar pembangunan.</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>SURYAMAN</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Penghasilan pekerja migran tidak menentu, seringkali dipotong biaya agen, dan tanpa perlindungan yang memadai di negara tujuan, memperburuk kondisi ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>HJ ROSMIATI</t>
+  </si>
+  <si>
+    <t>Pasokan air tidak teratur, menyulitkan kebutuhan sehari-hari kami.</t>
+  </si>
+  <si>
+    <t>SHAKIRA AZ-ZAHRA</t>
+  </si>
+  <si>
+    <t>Peningkatan aksesibilitas fasilitas publik bagi penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>ANI MAHARANI</t>
+  </si>
+  <si>
+    <t>Kami juga menghadapi masalah sosial, terutama terkait dengan kurangnya akses pendidikan di wilayah ini. Banyak anak-anak yang tidak bisa mengakses pendidikan yang layak.</t>
+  </si>
+  <si>
+    <t>MUHAMAD MUIZ</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Perluasan program pemberdayaan petani kecil akan membantu meningkatkan produksi pangan lokal.</t>
+  </si>
+  <si>
+    <t>IUS HAMDANI</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Pemberdayaan anak muda melalui program pelatihan kewirausahaan akan menciptakan generasi yang kreatif dan mandiri.</t>
+  </si>
+  <si>
+    <t>RUSLAN</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat pembuangan sampah, mengakibatkan pencemaran lingkungan.</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SYAFIQ RAMADANI</t>
+  </si>
+  <si>
+    <t>Pasokan air tidak terjamin, meningkatkan risiko kekurangan air bersih dan sanitasi yang buruk.</t>
+  </si>
+  <si>
+    <t>SITI RODIAH</t>
+  </si>
+  <si>
+    <t>Kurangnya perhatian pemerintah terhadap infrastruktur pedesaan, menyebabkan kemunduran.</t>
+  </si>
+  <si>
+    <t>SITI PATIMAH</t>
+  </si>
+  <si>
+    <t>Kurangnya dukungan untuk industri kreatif lokal membuat banyak talenta muda kesulitan mengembangkan bakat mereka dan bersaing di pasar global.</t>
+  </si>
+  <si>
+    <t>WARTIMI</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan pekerjaan di daerah menyebabkan banyak penduduk usia produktif menganggur atau terpaksa bekerja di sektor informal dengan penghasilan minim.</t>
+  </si>
+  <si>
+    <t>ARIPIN HIDAYAT</t>
+  </si>
+  <si>
+    <t>Upah minimum yang tidak cukup untuk menutupi biaya hidup di kota besar, menyebabkan banyak pekerja hidup dalam kondisi yang memprihatinkan.</t>
+  </si>
+  <si>
+    <t>ARYA ALIP NURHIDAYAT</t>
+  </si>
+  <si>
+    <t>Kurangnya pengawasan dan regulasi dalam pasar tenaga kerja membuat banyak pekerja mengalami eksploitasi dan kondisi kerja yang tidak layak.</t>
+  </si>
+  <si>
+    <t>FAHMI FADILAH</t>
+  </si>
+  <si>
+    <t>Fluktuasi nilai tukar mata uang yang tidak stabil menyebabkan harga barang impor menjadi mahal, menambah beban masyarakat yang bergantung pada barang tersebut.</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>DEDE ROSANI</t>
+  </si>
+  <si>
+    <t>Kami mendukung inisiatif untuk menciptakan ruang publik yang aman dan bersih bagi anak-anak dan keluarga.</t>
+  </si>
+  <si>
+    <t>ROSID</t>
+  </si>
+  <si>
+    <t>Krisis ekonomi global menyebabkan daya beli masyarakat turun. Ini mengakibatkan penjualan usaha kecil menurun drastis, membahayakan keberlanjutan usaha.</t>
+  </si>
+  <si>
+    <t>DADAH HOLIDAH</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap air bersih di beberapa daerah menyebabkan masalah kesehatan yang serius dan mempengaruhi produktivitas masyarakat.</t>
+  </si>
+  <si>
+    <t>AZAM HAMDALAH</t>
+  </si>
+  <si>
+    <t>Perlindungan terhadap hak-hak anak perlu diprioritaskan. Kami ingin melihat keamanan dan kesejahteraan anak-anak diutamakan.</t>
+  </si>
+  <si>
+    <t>SRI HARTATI</t>
+  </si>
+  <si>
+    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, membatasi partisipasi mereka dalam kehidupan sosial dan ekonomi.</t>
+  </si>
+  <si>
+    <t>SARIAH</t>
+  </si>
+  <si>
+    <t>Harga sewa rumah dan tanah yang terus naik membuat masyarakat sulit memiliki tempat tinggal. Kondisi ini mengancam kestabilan ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>BARIAH</t>
+  </si>
+  <si>
+    <t>Kenaikan harga listrik berdampak pada biaya produksi bagi pengusaha kecil, yang akhirnya menaikkan harga jual produk. Hal ini menurunkan daya beli masyarakat.</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>DAFFA AQILA PRANAJA</t>
+  </si>
+  <si>
+    <t>Harga sembako yang fluktuatif membuat sulit untuk mengatur keuangan rumah tangga. Setiap kenaikan harga berdampak langsung pada pengeluaran harian.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AZMI ZAIDAN</t>
+  </si>
+  <si>
+    <t>Pendidikan tentang pentingnya pola makan sehat dan gaya hidup aktif harus diintensifkan untuk mengatasi masalah kesehatan masyarakat.</t>
+  </si>
+  <si>
+    <t>SAEP SAEPUDIN</t>
+  </si>
+  <si>
+    <t>Perlunya program pelatihan keterampilan soft skills untuk meningkatkan kemampuan interpersonal.</t>
+  </si>
+  <si>
+    <t>RINDANG ANGGRAENI</t>
+  </si>
+  <si>
     <t>006</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>Kertamandala</t>
+    <t>Banyak warga yang tidak memiliki akses ke pendidikan finansial, membuat mereka mudah tertipu investasi bodong atau pengelolaan keuangan yang kurang baik.</t>
+  </si>
+  <si>
+    <t>AIP MAPTUH</t>
+  </si>
+  <si>
+    <t>Tingginya angka kemiskinan di daerah pesisir menunjukkan masih banyaknya warga yang bergantung pada sektor perikanan yang rentan terhadap perubahan iklim.</t>
+  </si>
+  <si>
+    <t>SYAQILA GYA OKTAVIA</t>
+  </si>
+  <si>
+    <t>Akses modal yang sulit bagi usaha kecil dan menengah membuat mereka kesulitan untuk berkembang dan bersaing dengan perusahaan besar.</t>
+  </si>
+  <si>
+    <t>RAHMA YANTI</t>
+  </si>
+  <si>
+    <t>Minimnya program pelatihan kerja dari pemerintah membuat banyak tenaga kerja tidak memiliki keterampilan yang dibutuhkan di pasar kerja saat ini.</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>UUN NURUL FALAH</t>
+  </si>
+  <si>
+    <t>Masalah kekerasan dalam rumah tangga, merusak hubungan interpersonal dan kesejahteraan keluarga.</t>
+  </si>
+  <si>
+    <t>DARA ANDRA SATRIANA SAPUTRA</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan masyarakat lokal dalam mengelola sumber daya alam untuk keberlanjutan lingkungan.</t>
+  </si>
+  <si>
+    <t>SAEPUL YUSUP</t>
+  </si>
+  <si>
+    <t>Tingkat perceraian yang tinggi di beberapa daerah terkait dengan tekanan ekonomi yang membuat kehidupan rumah tangga menjadi tidak harmonis.</t>
+  </si>
+  <si>
+    <t>WAFA NUR ADILLAH</t>
+  </si>
+  <si>
+    <t>Kami mendukung ide untuk membuat taman publik sebagai tempat rekreasi dan pertemuan sosial bagi warga.</t>
+  </si>
+  <si>
+    <t>NA'I SITI ROHMAH</t>
+  </si>
+  <si>
+    <t>Budaya lokal kami, meskipun kaya, terkadang terabaikan. Kami ingin melihat lebih banyak acara budaya dan festival untuk mempromosikan keunikan kami.</t>
+  </si>
+  <si>
+    <t>ENIH</t>
+  </si>
+  <si>
+    <t>kendaraan umum yang sulit dijumpai di wilayah terpencil.</t>
+  </si>
+  <si>
+    <t>IBAH TITI TOYIBAH</t>
+  </si>
+  <si>
+    <t>Pajak yang tinggi bagi UMKM membuat banyak usaha kecil kesulitan berkembang. Mereka membutuhkan insentif agar bisa bersaing dengan usaha besar.</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>IKIN MUNASIKIN</t>
+  </si>
+  <si>
+    <t>Tingginya tingkat perceraian dan konflik rumah tangga, mempengaruhi stabilitas sosial di pedesaan.</t>
+  </si>
+  <si>
+    <t>IDAH</t>
+  </si>
+  <si>
+    <t>Pengembangan pariwisata berkelanjutan akan membantu mempromosikan potensi pariwisata lokal dan menciptakan lapangan kerja.</t>
+  </si>
+  <si>
+    <t>TARMEDI</t>
+  </si>
+  <si>
+    <t>Budaya lokal harus lebih dipromosikan agar tidak hilang. Kami ingin melihat kegiatan budaya lebih sering diadakan untuk mempertahankan warisan nenek moyang kami.</t>
+  </si>
+  <si>
+    <t>INDRA IRAWAN</t>
+  </si>
+  <si>
+    <t>Banyak produk palsu, merugikan konsumen dan produsen asli.</t>
+  </si>
+  <si>
+    <t>SITI AMINAH</t>
+  </si>
+  <si>
+    <t>Kualitas infrastruktur yang rendah di daerah terpencil membuat akses transportasi dan distribusi barang menjadi sulit dan mahal, mempengaruhi harga barang kebutuhan.</t>
+  </si>
+  <si>
+    <t>SRI RAHAYU</t>
+  </si>
+  <si>
+    <t>Infrastruktur jalan rusak, sulit bagi kami untuk mengakses kota terdekat.</t>
+  </si>
+  <si>
+    <t>SITI SANIATUN ALIA</t>
+  </si>
+  <si>
+    <t>Drainase yang buruk, menyebabkan banjir dan kerusakan infrastruktur saat musim hujan.</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>LINA AGUSTINA</t>
+  </si>
+  <si>
+    <t>Perlindungan lingkungan hidup harus menjadi prioritas utama. Kami membutuhkan langkah-langkah untuk melindungi habitat alami dan keanekaragaman hayati.</t>
+  </si>
+  <si>
+    <t>SAPRI</t>
+  </si>
+  <si>
+    <t>Pentingnya kesetaraan gender perlu terus ditekankan. Kami ingin melihat lebih banyak kesempatan setara bagi perempuan di berbagai bidang.</t>
+  </si>
+  <si>
+    <t>WIWIN TARSIH</t>
+  </si>
+  <si>
+    <t>Kebutuhan internet untuk pendidikan dan pekerjaan seringkali tidak terpenuhi di daerah terpencil, membuat masyarakat tertinggal dalam kesempatan ekonomi.</t>
+  </si>
+  <si>
+    <t>AULIA EKAWATI</t>
+  </si>
+  <si>
+    <t>Peningkatan keamanan di area bermain anak-anak dan taman umum di malam hari.</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>Inisiatif untuk mengurangi penggunaan plastik sekali pakai dan menggantinya dengan alternatif ramah lingkungan.</t>
+  </si>
+  <si>
+    <t>SITI MARYAM HOERUNISA</t>
+  </si>
+  <si>
+    <t>Monopoli pasar oleh perusahaan besar membuat usaha kecil dan menengah sulit bersaing, mengurangi kesempatan mereka untuk berkembang dan menciptakan lapangan kerja.</t>
+  </si>
+  <si>
+    <t>ANNISA AZHAR FEBRIANA</t>
+  </si>
+  <si>
+    <t>Masalah perumahan yang mahal di kota besar membuat banyak warga terpaksa tinggal di pemukiman kumuh dengan fasilitas yang minim dan tidak layak.</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>DIANA BAROKAH</t>
+  </si>
+  <si>
+    <t>Keberlanjutan energi adalah hal penting bagi kami. Kami mendukung inisiatif untuk beralih ke sumber energi terbarukan.</t>
+  </si>
+  <si>
+    <t>NINING</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana transportasi umum, membuat perjalanan menjadi sulit.</t>
+  </si>
+  <si>
+    <t>ERUM</t>
+  </si>
+  <si>
+    <t>Jalan rusak parah, mengganggu kelancaran lalu lintas dan merusak kendaraan.</t>
+  </si>
+  <si>
+    <t>FADIL ABDILAH</t>
+  </si>
+  <si>
+    <t>Harga kebutuhan pokok yang terus naik membuat banyak warga kesulitan memenuhi kebutuhan sehari-hari, terutama bagi mereka yang berpenghasilan rendah.</t>
+  </si>
+  <si>
+    <t>YAYAH LAILATUL QODARIAH</t>
+  </si>
+  <si>
+    <t>Inisiatif peningkatan kebersihan lingkungan sekitar sekolah untuk menciptakan lingkungan pembelajaran yang baik.</t>
+  </si>
+  <si>
+    <t>ADE BUDIMAN</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program pelatihan kerja bagi warga dewasa yang ingin meningkatkan keterampilan dan mencari pekerjaan.</t>
+  </si>
+  <si>
+    <t>SUKIAH</t>
+  </si>
+  <si>
+    <t>Permasalahan budaya juga menjadi concern. Pentingnya pelestarian budaya lokal harus diimbangi dengan upaya perlindungan terhadap kearifan lokal yang terus terancam.</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>SITI MAKIROH</t>
+  </si>
+  <si>
+    <t>Peningkatan keamanan transportasi umum akan memberikan kenyamanan bagi warga yang bergantung pada transportasi publik.</t>
+  </si>
+  <si>
+    <t>AJROIL JAELANI, ST</t>
+  </si>
+  <si>
+    <t>Praktik korupsi yang masih marak di berbagai sektor pemerintahan menghambat pembangunan ekonomi dan mengurangi kepercayaan masyarakat terhadap pemerintah.</t>
+  </si>
+  <si>
+    <t>UMU KULSUM</t>
+  </si>
+  <si>
+    <t>Jembatan yang tidak terawat, mengancam keselamatan transportasi dan mengisolasi wilayah.</t>
+  </si>
+  <si>
+    <t>ABIDZAR ARFAN AL GHIFARI</t>
+  </si>
+  <si>
+    <t>Program pelatihan keamanan siber untuk meningkatkan kesadaran tentang ancaman di dunia digital.</t>
+  </si>
+  <si>
+    <t>SUPRIADI</t>
+  </si>
+  <si>
+    <t>Peningkatan layanan transportasi umum untuk mengurangi kemacetan dan emisi gas rumah kaca.</t>
+  </si>
+  <si>
+    <t>NETI</t>
+  </si>
+  <si>
+    <t>Program bantuan sosial yang tidak merata dan sering kali salah sasaran membuat banyak warga yang benar-benar membutuhkan tidak mendapatkan bantuan.</t>
+  </si>
+  <si>
+    <t>E.SADUDIN</t>
+  </si>
+  <si>
+    <t>Kolaborasi antarwarga perlu ditingkatkan untuk membangun rasa solidaritas dan kebersamaan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>ABDUL MANAP</t>
+  </si>
+  <si>
+    <t>Kurangnya pelatihan kerja dari pemerintah membuat banyak pekerja kurang memiliki keterampilan yang dibutuhkan pasar kerja, sehingga mereka sulit bersaing.</t>
+  </si>
+  <si>
+    <t>DANI RAMDANI</t>
+  </si>
+  <si>
+    <t>Masalah keamanan dan kriminalitas, mengganggu kedamaian dan kesejahteraan masyarakat pedesaan.</t>
+  </si>
+  <si>
+    <t>M.SUKRI MUSTOPA</t>
+  </si>
+  <si>
+    <t>Kemacetan lalu lintas yang parah, menyebabkan waktu tempuh yang lama.</t>
+  </si>
+  <si>
+    <t>RICKY SEPTIAN</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program inklusivitas dan diversitas di tempat kerja untuk mendorong kesetaraan.</t>
+  </si>
+  <si>
+    <t>CICIH MINTARSIH</t>
+  </si>
+  <si>
+    <t>Sosial di lingkungan kami juga butuh perhatian lebih. Banyak keluarga yang kesulitan memenuhi kebutuhan sehari-hari, terutama mereka yang kurang mampu.</t>
+  </si>
+  <si>
+    <t>JUMARIAH</t>
+  </si>
+  <si>
+    <t>Sosial di wilayah kami perlu diperhatikan, terutama bagi kaum lansia yang seringkali merasa terisolasi. Program sosial untuk menjaga kesejahteraan mereka sangat diharapkan.</t>
+  </si>
+  <si>
+    <t>IHSAN MUHAMMAD FADLAN</t>
+  </si>
+  <si>
+    <t>Jalan berlubang yang berbahaya bagi pengendara sepeda motor dan pengguna jalan lainnya.</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>ZIANKA MAULANA PUTRA</t>
   </si>
   <si>
     <t>Masalah gizi buruk yang masih tinggi di beberapa daerah menunjukkan kurangnya akses terhadap makanan bergizi dan pelayanan kesehatan yang memadai.</t>
   </si>
   <si>
-    <t>ANWAR MURTADO</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>Minimnya program pelatihan kerja dari pemerintah membuat banyak tenaga kerja tidak memiliki keterampilan yang dibutuhkan di pasar kerja saat ini.</t>
-  </si>
-  <si>
-    <t>CANTIMI</t>
-  </si>
-  <si>
-    <t>Tembong</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Kolaborasi antarwarga perlu ditingkatkan untuk membangun rasa solidaritas dan kebersamaan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>SARIP HIDAYAT</t>
-  </si>
-  <si>
-    <t>Cibungur</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>Kurangnya lapangan pekerjaan di daerah menyebabkan banyak penduduk usia produktif menganggur atau terpaksa bekerja di sektor informal dengan penghasilan minim.</t>
-  </si>
-  <si>
-    <t>TARSINI</t>
+    <t>ADIKA BASWARA</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses ke bank dan layanan keuangan, menghambat pertumbuhan ekonomi.</t>
+  </si>
+  <si>
+    <t>TAMIM</t>
+  </si>
+  <si>
+    <t>Masalah kesehatan mental yang diabaikan sering membuat produktivitas menurun, mengakibatkan dampak ekonomi jangka panjang pada keluarga.</t>
+  </si>
+  <si>
+    <t>LINDA OKTAPIYANI</t>
+  </si>
+  <si>
+    <t>Kebijakan impor bahan pangan yang tinggi menyebabkan produk lokal sulit bersaing, membuat petani lokal kesulitan meningkatkan pendapatan.</t>
+  </si>
+  <si>
+    <t>ABDUL MISBAH</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya ruang kreatif untuk pertemuan masyarakat dan diskusi komunitas.</t>
+  </si>
+  <si>
+    <t>REZA ADRIANA</t>
+  </si>
+  <si>
+    <t>Minimnya jaminan sosial untuk pekerja sektor informal menyebabkan mereka tidak memiliki perlindungan saat menghadapi situasi darurat atau pensiun.</t>
+  </si>
+  <si>
+    <t>BAYU SAGARA</t>
+  </si>
+  <si>
+    <t>Banyak masyarakat yang merasa khawatir karena harga pangan yang sering berfluktuasi dan sulit diprediksi.</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>DEDI SURANTO</t>
+  </si>
+  <si>
+    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, menghalangi partisipasi mereka dalam kehidupan sosial dan ekonomi lokal.</t>
+  </si>
+  <si>
+    <t>ITSNA QURROTA A'YUNIN</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program rehabilitasi bagi mantan narapidana untuk memfasilitasi reintegrasi sosial.</t>
+  </si>
+  <si>
+    <t>RUSMAN</t>
+  </si>
+  <si>
+    <t>Harga pupuk dan pestisida yang mahal, membebani petani kecil.</t>
+  </si>
+  <si>
+    <t>CINDY SEPTIA YUANDA PUTRI</t>
+  </si>
+  <si>
+    <t>Keterbatasan transportasi umum, mempersulit mobilitas penduduk terutama dalam mencari pekerjaan dan pendidikan.</t>
+  </si>
+  <si>
+    <t>EMOH</t>
+  </si>
+  <si>
+    <t>Praktik kerja paksa yang masih terjadi di beberapa sektor menunjukkan lemahnya pengawasan dan penegakan hukum dalam perlindungan hak pekerja.</t>
+  </si>
+  <si>
+    <t>RUSTAMAN</t>
+  </si>
+  <si>
+    <t>Kami mendukung inisiatif untuk melestarikan warisan arsitektur dan bangunan bersejarah di wilayah kami.</t>
+  </si>
+  <si>
+    <t>DIAN KUSDIANTO</t>
+  </si>
+  <si>
+    <t>Program beasiswa pendidikan sangat dibutuhkan untuk membantu anak-anak muda di wilayah kami mengakses pendidikan tinggi.</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>ERO ARIYANTO</t>
+  </si>
+  <si>
+    <t>Minimnya program pemerintah untuk pengembangan keterampilan kerja menyebabkan banyak tenaga kerja tidak memiliki kemampuan yang relevan dengan kebutuhan industri.</t>
+  </si>
+  <si>
+    <t>IPAN ADRIYAN</t>
+  </si>
+  <si>
+    <t>Akses internet lambat atau tidak ada, menghambat akses informasi dan pendidikan.</t>
+  </si>
+  <si>
+    <t>ADHITIA FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>Pemanfaatan teknologi yang rendah di sektor pertanian menyebabkan produktivitas petani tidak maksimal dan pendapatan</t>
+  </si>
+  <si>
+    <t>ADE REZKY KHOERUL ANAM</t>
+  </si>
+  <si>
+    <t>Program mentoring untuk membantu pemuda dalam merencanakan karir dan mencapai potensi penuh mereka.</t>
+  </si>
+  <si>
+    <t>JARTI</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap layanan pernikahan dan keluarga, mempengaruhi kestabilan rumah tangga.</t>
+  </si>
+  <si>
+    <t>ISOH KARMINI</t>
+  </si>
+  <si>
+    <t>Kami menghadapi tantangan ekonomi berat, terutama karena adanya dampak pandemi COVID-19. Banyak usaha kecil tutup, dan pengangguran meningkat.</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada impor membuat harga barang seringkali naik ketika nilai tukar melemah, menyebabkan beban pada masyarakat berpenghasilan rendah.</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>DEDEN HAMDANI</t>
+  </si>
+  <si>
+    <t>Tingginya inflasi membuat harga barang-barang pokok naik, namun gaji masyarakat tetap, menyebabkan daya beli terus melemah.</t>
+  </si>
+  <si>
+    <t>MEMED HIDAYAT</t>
+  </si>
+  <si>
+    <t>Kebersihan dan pengelolaan sampah perlu ditingkatkan. Program pengelolaan sampah yang baik akan menjaga keindahan lingkungan kami.</t>
+  </si>
+  <si>
+    <t>FAJRI NURUL FIKRI</t>
+  </si>
+  <si>
+    <t>Upah minimum rendah, sulit untuk hidup layak bagi warga.</t>
+  </si>
+  <si>
+    <t>AMIRUL MU'MININ</t>
+  </si>
+  <si>
+    <t>Kami membutuhkan perbaikan infrastruktur dasar seperti jalan dan saluran air. Musim hujan seringkali membawa banjir ke wilayah kami.</t>
+  </si>
+  <si>
+    <t>SYEH AKBAR</t>
+  </si>
+  <si>
+    <t>Keamanan menjadi perhatian utama. Kami membutuhkan peningkatan patroli keamanan dan kerjasama dengan kepolisian untuk mengatasi peningkatan kejahatan di lingkungan kami.</t>
+  </si>
+  <si>
+    <t>JUNED</t>
+  </si>
+  <si>
+    <t>Kurangnya penyeberangan pejalan kaki dan fasilitas untuk penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>IPAN NURDIN</t>
+  </si>
+  <si>
+    <t>Sistem keuangan yang tidak inklusif membuat banyak warga kesulitan membuka rekening bank, padahal akses ke layanan keuangan penting untuk meningkatkan ekonomi.</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>OOT HOTIMAH</t>
+  </si>
+  <si>
+    <t>Kesenjangan digital menghambat banyak orang untuk memperoleh keterampilan baru yang relevan, menyebabkan mereka kesulitan bersaing di pasar kerja modern.</t>
+  </si>
+  <si>
+    <t>NUR HIDAYAH</t>
+  </si>
+  <si>
+    <t>Kendaraan parkir sembarangan di jalan, menyebabkan kemacetan dan kekacauan.</t>
+  </si>
+  <si>
+    <t>BUNGA ELISA</t>
+  </si>
+  <si>
+    <t>Kekurangan dokter dan tenaga medis, menghambat pelayanan kesehatan.</t>
+  </si>
+  <si>
+    <t>YOYOH KOMARIAH</t>
+  </si>
+  <si>
+    <t>Ketidakpastian hukum dalam dunia usaha membuat investor ragu untuk menanamkan modal, menghambat pertumbuhan ekonomi dan penciptaan lapangan kerja.</t>
+  </si>
+  <si>
+    <t>A JAELANI</t>
+  </si>
+  <si>
+    <t>Sistem drainase yang tidak efektif, menyebabkan risiko banjir dan kerusakan infrastruktur pada musim hujan.</t>
+  </si>
+  <si>
+    <t>TITA HENDARTI</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan gender yang masih ada dalam berbagai aspek kehidupan, termasuk di tempat kerja dan dalam lingkungan domestik.</t>
+  </si>
+  <si>
+    <t>HALIM PERDNA KUSUMAH</t>
+  </si>
+  <si>
+    <t>Banyaknya investasi ilegal atau bodong membuat banyak warga tertipu, menguras tabungan mereka, sehingga kondisi ekonomi semakin terpuruk.</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>HERDIANA</t>
+  </si>
+  <si>
+    <t>Banyaknya kasus kekerasan dalam rumah tangga yang tidak tertangani menunjukkan masalah sosial yang kompleks akibat tekanan ekonomi dan minimnya pendidikan.</t>
+  </si>
+  <si>
+    <t>ANNISA OCHTAVIA</t>
+  </si>
+  <si>
+    <t>Ketersediaan air bersih yang minim, meningkatkan risiko penyakit.</t>
+  </si>
+  <si>
+    <t>KONIMAH</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program kreativitas seni untuk meningkatkan apresiasi seni di kalangan masyarakat.</t>
+  </si>
+  <si>
+    <t>KAMILA KHOIRUN NAFISA</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada sektor informal menyebabkan banyak pekerja tidak memiliki jaminan sosial atau keamanan kerja, membuat mereka rentan terhadap krisis ekonomi.</t>
+  </si>
+  <si>
+    <t>IIS ISMAWATI</t>
+  </si>
+  <si>
+    <t>Persaingan ketat di dunia kerja membuat banyak lulusan baru kesulitan mencari pekerjaan yang layak, sementara kebutuhan hidup terus meningkat.</t>
+  </si>
+  <si>
+    <t>ENDI TARYADI</t>
+  </si>
+  <si>
+    <t>Ketidakstabilan harga bahan bakar berdampak langsung pada biaya transportasi. Hal ini menambah beban bagi masyarakat kecil yang bergantung pada transportasi umum.</t>
+  </si>
+  <si>
+    <t>DADAN HIKAYAT</t>
+  </si>
+  <si>
+    <t>Sulitnya mendapatkan akses ke layanan telekomunikasi, mengisolasi kami dari dunia luar.</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FACHRI KHOERI</t>
+  </si>
+  <si>
+    <t>Program pengelolaan air yang berkelanjutan untuk mengatasi masalah ketersediaan air di musim kemarau.</t>
+  </si>
+  <si>
+    <t>ARIF NURROHMAN</t>
+  </si>
+  <si>
+    <t>Ketidakstabilan politik seringkali mengganggu iklim investasi dan pertumbuhan ekonomi, membuat investor ragu untuk menanamkan modal di Indonesia.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NIZAM</t>
+  </si>
+  <si>
+    <t>Dukungan bagi inisiatif pengembangan kawasan wisata alam yang indah di sekitar wilayah kami.</t>
+  </si>
+  <si>
+    <t>IQI MUHAMMAD MULQI FIQRULLAH</t>
+  </si>
+  <si>
+    <t>Kurangnya investasi dalam sektor pendidikan membuat banyak sekolah kekurangan fasilitas dan tenaga pengajar berkualitas, mempengaruhi mutu pendidikan.</t>
+  </si>
+  <si>
+    <t>RANI AULIYAWATI</t>
+  </si>
+  <si>
+    <t>Program pengembangan kawasan industri kecil untuk mendukung pengusaha lokal.</t>
+  </si>
+  <si>
+    <t>RATIH PURWASIH</t>
+  </si>
+  <si>
+    <t>Banjir sering terjadi, merusak tanaman dan infrastruktur kami.</t>
+  </si>
+  <si>
+    <t>Tidak adanya dukungan sosial bagi kaum lanjut usia, meningkatkan risiko kesepian dan ketergantungan.</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>RUSTANDI</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses kesehatan bagi masyarakat kecil membuat mereka rentan terhadap masalah kesehatan, yang berimbas pada kondisi ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>ADITIYA RAMADHAN</t>
+  </si>
+  <si>
+    <t>Inisiatif penanaman pohon dan pelestarian hutan untuk mengurangi dampak perubahan iklim.</t>
+  </si>
+  <si>
+    <t>ADE AMRI MUBAROK</t>
+  </si>
+  <si>
+    <t>Biaya transportasi yang tinggi untuk distribusi barang ke daerah terpencil menyebabkan harga kebutuhan pokok di daerah tersebut jauh lebih mahal.</t>
+  </si>
+  <si>
+    <t>FADIL MAULIDAN</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi yang pesat menyebabkan banyak tenaga kerja kehilangan pekerjaan karena digantikan oleh mesin atau otomatisasi.</t>
+  </si>
+  <si>
+    <t>IPAH</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap layanan kesehatan yang terjangkau membuat banyak warga harus mengorbankan kesehatan mereka karena tidak mampu membayar biaya berobat.</t>
+  </si>
+  <si>
+    <t>NADIN RASYIDA HUMAIRA</t>
+  </si>
+  <si>
+    <t>Warga kami membutuhkan pelatihan keterampilan untuk meningkatkan daya saing di pasar kerja. Program pelatihan vokasional akan sangat membantu.</t>
+  </si>
+  <si>
+    <t>AURORA NABILAH</t>
+  </si>
+  <si>
+    <t>Kesenjangan digital antara daerah perkotaan dan pedesaan menghambat pertumbuhan ekonomi yang inklusif dan merata di seluruh Indonesia.</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>SENDI PEBRIANSAH</t>
+  </si>
+  <si>
+    <t>Sarana kesehatan di wilayah kami perlu ditingkatkan. Akses ke puskesmas dan layanan kesehatan harus lebih mudah dijangkau oleh masyarakat.</t>
+  </si>
+  <si>
+    <t>AI YULIAWATI</t>
+  </si>
+  <si>
+    <t>Kemacetan lalu lintas di kota besar menyebabkan banyak warga kehilangan waktu produktif dan meningkatkan biaya transportasi harian.</t>
+  </si>
+  <si>
+    <t>POPO FAUZIATUL MUNAWAROH</t>
+  </si>
+  <si>
+    <t>Tidak adanya jaringan pengaman sosial yang memadai, menyebabkan kelompok rentan sulit mendapatkan dukungan saat menghadapi kesulitan.</t>
+  </si>
+  <si>
+    <t>IRPAN MAULANA SIDIK</t>
+  </si>
+  <si>
+    <t>Perlunya program pembangunan infrastruktur ramah lingkungan seperti jalur sepeda dan trotoar pejalan kaki.</t>
+  </si>
+  <si>
+    <t>H. LATIF</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja, menyebabkan tingginya tingkat pengangguran di pedesaan.</t>
+  </si>
+  <si>
+    <t>SOBAR</t>
   </si>
   <si>
     <t>Keterbatasan akses terhadap teknologi dan informasi, memperlebar kesenjangan digital dan sosial.</t>
   </si>
   <si>
-    <t>MUHAMMAD RIZKI MAULAL HUSNA</t>
-  </si>
-  <si>
-    <t>Reumaleuga</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>Kurangnya jalan alternatif untuk mengurangi kepadatan lalu lintas di ruas jalan utama.</t>
-  </si>
-  <si>
-    <t>RUDI</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>Kami berharap ada program pelatihan digital untuk meningkatkan literasi teknologi di kalangan masyarakat kami.</t>
-  </si>
-  <si>
-    <t>2024-12-02</t>
-  </si>
-  <si>
-    <t>ADE SYAMSIAH</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>Program pemerintah yang tidak tepat sasaran dan birokrasi yang berbelit menyebabkan bantuan sosial sering kali tidak sampai kepada yang berhak.</t>
-  </si>
-  <si>
-    <t>DARMAT</t>
-  </si>
-  <si>
-    <t>001</t>
+    <t>SAROH</t>
+  </si>
+  <si>
+    <t>Peningkatan infrastruktur telekomunikasi akan memastikan akses internet yang cepat dan andal bagi semua warga.</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>Biaya kesehatan yang mahal menyebabkan banyak keluarga kesulitan membayar pengobatan, terutama untuk penyakit kronis yang memerlukan perawatan jangka panjang.</t>
+  </si>
+  <si>
+    <t>LAELIAH</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program peningkatan kesadaran akan pentingnya pelestarian lingkungan di sekolah-sekolah.</t>
+  </si>
+  <si>
+    <t>MAHMUD</t>
+  </si>
+  <si>
+    <t>Kurangnya penerangan jalan yang memadai, meningkatkan risiko kecelakaan di malam hari.</t>
+  </si>
+  <si>
+    <t>IRPAN</t>
+  </si>
+  <si>
+    <t>Harga pupuk dan pestisida yang naik drastis membuat petani kesulitan mendapatkan hasil yang menguntungkan, menyebabkan kerugian yang besar.</t>
+  </si>
+  <si>
+    <t>DARTA</t>
+  </si>
+  <si>
+    <t>Kebijakan ekonomi yang sering berubah membuat pengusaha kecil kesulitan merencanakan keuangan mereka, sehingga menghambat perkembangan usaha.</t>
+  </si>
+  <si>
+    <t>IWAN</t>
+  </si>
+  <si>
+    <t>Pengurangan subsidi BBM mengakibatkan kenaikan biaya produksi dan distribusi, membuat harga barang-barang kebutuhan pokok semakin tinggi.</t>
+  </si>
+  <si>
+    <t>SALMON</t>
+  </si>
+  <si>
+    <t>Banyaknya pekerja anak di sektor informal menunjukkan masalah kemiskinan yang membuat anak-anak harus bekerja untuk membantu ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>IBROHIM</t>
+  </si>
+  <si>
+    <t>Kualitas pendidikan yang tidak merata membuat anak-anak di daerah terpencil sulit bersaing dengan anak-anak di kota besar dalam dunia kerja.</t>
+  </si>
+  <si>
+    <t>JEJEN ZENAL MUTTAQIN</t>
+  </si>
+  <si>
+    <t>Biaya sewa kios yang mahal menyulitkan pedagang kecil untuk bertahan, terutama di kota besar di mana harga sewa semakin tinggi.</t>
+  </si>
+  <si>
+    <t>ROMLI</t>
+  </si>
+  <si>
+    <t>Pembangunan trotoar yang tidak merata dan berbahaya.</t>
+  </si>
+  <si>
+    <t>Peningkatan aksesibilitas transportasi bagi penyandang disabilitas akan membantu memastikan inklusivitas masyarakat kami.</t>
+  </si>
+  <si>
+    <t>NANDA RAMDANI</t>
+  </si>
+  <si>
+    <t>Kami berharap ada program bantuan bagi keluarga yang terkena dampak bencana alam untuk memulihkan kehidupan mereka.</t>
+  </si>
+  <si>
+    <t>ALI MUHAMAD</t>
+  </si>
+  <si>
+    <t>Minimnya jalur sepeda membuat sulit bagi pengendara sepeda.</t>
+  </si>
+  <si>
+    <t>ENUH</t>
+  </si>
+  <si>
+    <t>Program edukasi tentang bahaya narkoba dan cara mencegahnya harus diperkenalkan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>LAELA MUFITASARI</t>
+  </si>
+  <si>
+    <t>Minimnya akses terhadap kredit mikro bagi pengusaha kecil membuat mereka kesulitan untuk memulai atau mengembangkan usaha mereka.</t>
+  </si>
+  <si>
+    <t>IIN HINDASAH</t>
+  </si>
+  <si>
+    <t>Perubahan iklim yang tidak menentu membuat banyak petani mengalami gagal panen, mengurangi produksi pangan dan pendapatan mereka secara signifikan.</t>
+  </si>
+  <si>
+    <t>NANANG KUSDIANA</t>
+  </si>
+  <si>
+    <t>Pekerjaan sulit dicari, pengangguran meningkat di wilayah ini.</t>
+  </si>
+  <si>
+    <t>OOH</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan mahal, sulit bagi keluarga kurang mampu.</t>
+  </si>
+  <si>
+    <t>DIDIN WAHIDIN</t>
+  </si>
+  <si>
+    <t>Infrastruktur pendidikan yang minim di daerah terpencil membuat kualitas pendidikan rendah dan anak-anak sulit bersaing di tingkat nasional.</t>
+  </si>
+  <si>
+    <t>RINA HERLINA</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan yang tinggi membuat banyak keluarga sulit menyekolahkan anak-anaknya. Hal ini mempersempit peluang ekonomi di masa depan.</t>
+  </si>
+  <si>
+    <t>ELIH KARYATI</t>
+  </si>
+  <si>
+    <t>Sulitnya mendapatkan modal usaha menjadi hambatan bagi UMKM. Pinjaman bank seringkali berbelit, membuat banyak pelaku usaha kesulitan berkembang.</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>NAJRIL ILHAM MUSLIHIN</t>
+  </si>
+  <si>
+    <t>Pendapatan petani seringkali tidak sesuai dengan biaya produksi. Harga jual yang rendah sementara biaya produksi tinggi membuat mereka merugi.</t>
+  </si>
+  <si>
+    <t>HADIS HIDAYAT</t>
+  </si>
+  <si>
+    <t>Kami perlu dukungan lebih lanjut dalam mengembangkan potensi pariwisata lokal. Ini dapat membantu meningkatkan ekonomi dan mengangkat citra wilayah kami.</t>
+  </si>
+  <si>
+    <t>ALIMIN NURUL FAUZAN</t>
+  </si>
+  <si>
+    <t>Dukungan untuk pengembangan pertanian lokal akan membantu memperkuat ketahanan pangan komunitas kami.</t>
+  </si>
+  <si>
+    <t>TENI AGUSTININA</t>
+  </si>
+  <si>
+    <t>Penggunaan lahan yang tidak terencana menyebabkan kerusakan lingkungan dan kehilangan lahan produktif yang penting bagi pertanian.</t>
+  </si>
+  <si>
+    <t>NURHIDAYAT KAMILUDIN</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan tinggi yang tidak terjangkau bagi banyak keluarga menyebabkan anak-anak dari keluarga kurang mampu tidak dapat melanjutkan ke perguruan tinggi.</t>
+  </si>
+  <si>
+    <t>JAJA TARJA</t>
+  </si>
+  <si>
+    <t>Program pelatihan kebersihan dan sanitasi harus diperkenalkan untuk meningkatkan kesadaran akan kebersihan lingkungan.</t>
+  </si>
+  <si>
+    <t>ADE RIZKY SURYAMAN</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana olahraga dan rekreasi, membuat generasi muda kurang aktif.</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>HENDI FALAHUDIN</t>
+  </si>
+  <si>
+    <t>Peningkatan infrastruktur untuk mendukung pengembangan industri kecil dan menengah lokal.</t>
+  </si>
+  <si>
+    <t>DENI JAELANI</t>
+  </si>
+  <si>
+    <t>Kesenjangan pendidikan, membatasi akses anak-anak pedesaan terhadap pendidikan berkualitas.</t>
+  </si>
+  <si>
+    <t>NAJWA NURFADILAH</t>
+  </si>
+  <si>
+    <t>Dukungan bagi industri kreatif lokal akan membantu menciptakan lapangan kerja dan merangsang pertumbuhan ekonomi.</t>
+  </si>
+  <si>
+    <t>AZRIEL OCAN BADRIAN</t>
+  </si>
+  <si>
+    <t>Kondisi jalan pedesaan yang buruk, menghambat distribusi barang dan pertumbuhan sektor pertanian.</t>
+  </si>
+  <si>
+    <t>REYNAN AZKA PRADIPTA</t>
+  </si>
+  <si>
+    <t>Tingkat inflasi yang tinggi membuat nilai uang semakin menurun, mengurangi daya beli masyarakat dan memperburuk kondisi ekonomi mereka.</t>
+  </si>
+  <si>
+    <t>IMAT ISMATULLOH</t>
+  </si>
+  <si>
+    <t>Kualitas jaringan telepon seluler buruk di beberapa area.</t>
+  </si>
+  <si>
+    <t>YANI ANDRIANI</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada komoditas ekspor tertentu membuat perekonomian Indonesia rentan terhadap fluktuasi harga di pasar internasional.</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>HUSNI MUBAROK</t>
+  </si>
+  <si>
+    <t>Perlunya program pendidikan mengenai dampak perubahan iklim dan upaya mitigasi.</t>
+  </si>
+  <si>
+    <t>AMAR MA'RUF</t>
+  </si>
+  <si>
+    <t>Tidak ada jalur khusus transportasi umum, menyebabkan kemacetan.</t>
+  </si>
+  <si>
+    <t>DANY DWI RIZEKI</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja dan peluang ekonomi yang memadai, meningkatkan tingkat pengangguran dan ketidakpastian pekerjaan.</t>
+  </si>
+  <si>
+    <t>HOLIH</t>
+  </si>
+  <si>
+    <t>Kurangnya perhatian terhadap isu lingkungan dan keberlanjutan, menciptakan ketidakpastian akan masa depan lingkungan hidup.</t>
+  </si>
+  <si>
+    <t>Isu diskriminasi rasial dan etnis yang terus muncul, menciptakan ketegangan dan konflik di antara berbagai kelompok masyarakat.</t>
+  </si>
+  <si>
+    <t>N. PATONAH</t>
+  </si>
+  <si>
+    <t>Peningkatan keberlanjutan energi melalui pemanfaatan sumber energi terbarukan seperti tenaga surya.</t>
+  </si>
+  <si>
+    <t>DEWI ROHAYANI</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses ke fasilitas kesehatan, memperlambat penanganan darurat dan perawatan medis.</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>KATMAH</t>
+  </si>
+  <si>
+    <t>Layanan kesehatan yang kurang memadai, sulit untuk mendapatkan perawatan medis.</t>
+  </si>
+  <si>
+    <t>LUTFI IDAN RAMDANI</t>
   </si>
   <si>
     <t>Sistem pendidikan yang tidak merata dan kurang berkualitas, menghambat kemajuan sosial dan ekonomi bagi sebagian masyarakat.</t>
   </si>
   <si>
-    <t>TOYO TARYO</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>Kondisi jembatan yang memburuk, mengancam keselamatan transportasi dan konektivitas antarwilayah.</t>
-  </si>
-  <si>
-    <t>PIOH</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>Kurangnya kesempatan kerja, meningkatkan tingkat pengangguran dan kemiskinan di komunitas pedesaan.</t>
-  </si>
-  <si>
-    <t>SARNAH</t>
-  </si>
-  <si>
-    <t>Budaya lokal harus lebih dipromosikan agar tidak hilang. Kami ingin melihat kegiatan budaya lebih sering diadakan untuk mempertahankan warisan nenek moyang kami.</t>
-  </si>
-  <si>
-    <t>ASEP SAYID MUKOYID</t>
-  </si>
-  <si>
-    <t>Mandala</t>
-  </si>
-  <si>
-    <t>Kami meminta peningkatan keamanan di sekitar perumahan kami. Beberapa insiden kecil terjadi dan membuat kami khawatir akan keselamatan keluarga kami.</t>
-  </si>
-  <si>
-    <t>WAWAN KUSTIAWAN</t>
-  </si>
-  <si>
-    <t>Permasalahan ketergantungan obat-obatan terlarang, merusak kesehatan dan stabilitas sosial di pedesaan.</t>
-  </si>
-  <si>
-    <t>2024-12-03</t>
-  </si>
-  <si>
-    <t>AYU</t>
-  </si>
-  <si>
-    <t>Sosialisasi mengenai pentingnya pelestarian lingkungan perlu ditingkatkan. Kami ingin lingkungan kami menjadi lebih bersih dan berkelanjutan.</t>
-  </si>
-  <si>
-    <t>PENDI PIRMANSYAH</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program inklusivitas dan diversitas di tempat kerja untuk mendorong kesetaraan.</t>
-  </si>
-  <si>
-    <t>RISSA HILATUL HIDAYAH</t>
-  </si>
-  <si>
-    <t>Banjar</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Minimnya tempat parkir untuk kendaraan umum di tempat kami.</t>
-  </si>
-  <si>
-    <t>ALVI NUGRAHA</t>
-  </si>
-  <si>
-    <t>Banyak lulusan baru tidak mampu membuka usaha karena keterbatasan modal dan kurangnya panduan untuk memulai bisnis, sehingga mereka kesulitan mandiri secara ekonomi.</t>
-  </si>
-  <si>
-    <t>MARWAH RIFDATUL UMMAH</t>
-  </si>
-  <si>
-    <t>005</t>
+    <t>TEDI SETIADI</t>
+  </si>
+  <si>
+    <t>Krisis lingkungan seperti banjir dan kekeringan merusak lahan pertanian. Hal ini berdampak langsung pada hasil panen dan pendapatan petani.</t>
+  </si>
+  <si>
+    <t>NANA SUTISNA</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan pendapatan dan kesenjangan sosial yang semakin lebar, menciptakan keresahan di kalangan masyarakat.</t>
+  </si>
+  <si>
+    <t>AELIA</t>
   </si>
   <si>
     <t>Peningkatan ketersediaan fasilitas olahraga untuk mendukung gaya hidup aktif masyarakat.</t>
   </si>
   <si>
-    <t>SAEFUL HIKMAT</t>
-  </si>
-  <si>
-    <t>Praktik korupsi yang masih marak di berbagai sektor pemerintahan menghambat pembangunan ekonomi dan mengurangi kepercayaan masyarakat terhadap pemerintah.</t>
-  </si>
-  <si>
-    <t>REINA TANAYA AYANA QIRANI</t>
-  </si>
-  <si>
-    <t>Keamanan di wilayah kami juga perlu diperhatikan. Terjadi peningkatan kasus kriminalitas dan kami merasa perlu adanya peningkatan patroli keamanan.</t>
-  </si>
-  <si>
-    <t>2024-12-04</t>
-  </si>
-  <si>
-    <t>AMIR HAMZAH</t>
-  </si>
-  <si>
-    <t>Keamanan jalan di sekitar sekolah harus ditingkatkan. Kami merasa khawatir dengan keselamatan anak-anak kami saat pergi dan pulang sekolah.</t>
-  </si>
-  <si>
-    <t>YUDI YUDIANA</t>
-  </si>
-  <si>
-    <t>Minimnya jalur sepeda membuat sulit bagi pengendara sepeda.</t>
-  </si>
-  <si>
-    <t>LATIFUL HOBIR</t>
-  </si>
-  <si>
-    <t>Kenaikan harga listrik berdampak pada biaya produksi bagi pengusaha kecil, yang akhirnya menaikkan harga jual produk. Hal ini menurunkan daya beli masyarakat.</t>
-  </si>
-  <si>
-    <t>AHMAD SOBIRIN</t>
-  </si>
-  <si>
-    <t>Kesenjangan digital antara daerah perkotaan dan pedesaan menghambat pertumbuhan ekonomi yang inklusif dan merata di seluruh Indonesia.</t>
-  </si>
-  <si>
-    <t>TOTONG RIDWAN</t>
-  </si>
-  <si>
-    <t>Dukungan bagi industri kreatif lokal akan membantu menciptakan lapangan kerja dan merangsang pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>DIAS MUHAMAD RIZIK APRIANSAH</t>
-  </si>
-  <si>
-    <t>Peningkatan layanan transportasi umum untuk mengurangi kemacetan dan emisi gas rumah kaca.</t>
-  </si>
-  <si>
-    <t>SENDI PEBRIANSAH</t>
-  </si>
-  <si>
-    <t>Kualitas jaringan telekomunikasi rendah, menghambat akses informasi dan pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>YATI ROSMIATI</t>
-  </si>
-  <si>
-    <t>Harga sewa rumah dan tanah yang terus naik membuat masyarakat sulit memiliki tempat tinggal. Kondisi ini mengancam kestabilan ekonomi keluarga.</t>
-  </si>
-  <si>
-    <t>HASBI ASYARI</t>
-  </si>
-  <si>
-    <t>Pembangunan trotoar yang tidak merata dan berbahaya.</t>
-  </si>
-  <si>
-    <t>AI YULIAWATI</t>
-  </si>
-  <si>
-    <t>Parkir liar yang menghalangi akses jalan dan mengurangi ruang untuk kendaraan.</t>
-  </si>
-  <si>
-    <t>JULFA LATIFATUL FUADAH</t>
-  </si>
-  <si>
-    <t>Perkembangan teknologi yang pesat menyebabkan banyak tenaga kerja kehilangan pekerjaan karena digantikan oleh mesin atau otomatisasi.</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RAIHAN AHZA</t>
-  </si>
-  <si>
-    <t>Jalan rusak, menyulitkan mobilitas penduduk dan distribusi barang.</t>
-  </si>
-  <si>
-    <t>UMAR</t>
-  </si>
-  <si>
-    <t>Tingginya inflasi membuat harga barang-barang pokok naik, namun gaji masyarakat tetap, menyebabkan daya beli terus melemah.</t>
-  </si>
-  <si>
-    <t>DAIS NUR AZIZAH</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan masyarakat untuk meningkatkan partisipasi dalam pengambilan keputusan komunitas.</t>
-  </si>
-  <si>
-    <t>2024-12-06</t>
-  </si>
-  <si>
-    <t>TATIN ROHAYATIN</t>
-  </si>
-  <si>
-    <t>Banyaknya investasi ilegal atau bodong membuat banyak warga tertipu, menguras tabungan mereka, sehingga kondisi ekonomi semakin terpuruk.</t>
-  </si>
-  <si>
-    <t>ADRIAN ADIA SAPUTRA</t>
+    <t>SAHIB</t>
+  </si>
+  <si>
+    <t>Pengangguran di desa menyebabkan banyak orang bermigrasi ke kota, namun tanpa keahlian yang memadai, mereka akhirnya kesulitan mendapatkan pekerjaan.</t>
+  </si>
+  <si>
+    <t>RISKA WULANDARI</t>
   </si>
   <si>
     <t>Ketersediaan listrik yang tidak konsisten, mengganggu aktivitas sehari-hari dan produktivitas usaha.</t>
-  </si>
-  <si>
-    <t>YADI</t>
-  </si>
-  <si>
-    <t>Banyaknya kasus kekerasan dalam rumah tangga yang tidak tertangani menunjukkan masalah sosial yang kompleks akibat tekanan ekonomi dan minimnya pendidikan.</t>
-  </si>
-  <si>
-    <t>IRMAWATI</t>
-  </si>
-  <si>
-    <t>Peningkatan keamanan transportasi umum akan memberikan kenyamanan bagi warga yang bergantung pada transportasi publik.</t>
-  </si>
-  <si>
-    <t>DIDIN FALAHUDIN</t>
-  </si>
-  <si>
-    <t>Pasokan air yang tidak stabil, meningkatkan risiko krisis kesehatan dan kebersihan di masyarakat.</t>
-  </si>
-  <si>
-    <t>ADITYA</t>
-  </si>
-  <si>
-    <t>Masalah keamanan dan kriminalitas, mengganggu kedamaian dan kesejahteraan masyarakat pedesaan.</t>
-  </si>
-  <si>
-    <t>ADE DADANG SUPRIADI</t>
-  </si>
-  <si>
-    <t>Marka jalan yang pudar atau tidak terlihat jelas, meningkatkan risiko kecelakaan.</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>AMAR RONA PUTRA</t>
-  </si>
-  <si>
-    <t>Jalan tidak terlayani saat hujan, menyebabkan banjir dan genangan air.</t>
-  </si>
-  <si>
-    <t>YAYU YULIANTI</t>
-  </si>
-  <si>
-    <t>Sistem drainase yang tidak efektif, menyebabkan risiko banjir dan kerusakan infrastruktur pada musim hujan.</t>
-  </si>
-  <si>
-    <t>MUHAMAD ZAKI ALHASANI</t>
-  </si>
-  <si>
-    <t>Dukungan pemerintah untuk pengembangan seni dan kreativitas lokal akan sangat diapresiasi. Inisiatif ini dapat memberikan peluang baru bagi para seniman dan budayawan.</t>
-  </si>
-  <si>
-    <t>WIWIN WINIARTI</t>
-  </si>
-  <si>
-    <t>Minimnya program pemerintah untuk pengembangan keterampilan kerja menyebabkan banyak tenaga kerja tidak memiliki kemampuan yang relevan dengan kebutuhan industri.</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap layanan kesehatan berkualitas, membuat banyak orang kesulitan mendapatkan perawatan yang dibutuhkan.</t>
-  </si>
-  <si>
-    <t>DIMAS HERDIANSYAH</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan petani lokal dalam beralih ke praktik pertanian organik.</t>
-  </si>
-  <si>
-    <t>DEDE NURUL AZMI</t>
-  </si>
-  <si>
-    <t>Tingkat inflasi yang tinggi membuat nilai uang semakin menurun, mengurangi daya beli masyarakat dan memperburuk kondisi ekonomi mereka.</t>
-  </si>
-  <si>
-    <t>2024-12-08</t>
-  </si>
-  <si>
-    <t>MUHAMAD ALBAR</t>
-  </si>
-  <si>
-    <t>Sosial di wilayah kami perlu diperhatikan, terutama bagi kaum lansia yang seringkali merasa terisolasi. Program sosial untuk menjaga kesejahteraan mereka sangat diharapkan.</t>
-  </si>
-  <si>
-    <t>AFIFAH NAHDA RAFANDA</t>
-  </si>
-  <si>
-    <t>Krisis pangan yang terjadi akibat perubahan iklim dan gagal panen membuat banyak petani kehilangan pendapatan dan masyarakat mengalami kelangkaan pangan.</t>
-  </si>
-  <si>
-    <t>ELA</t>
-  </si>
-  <si>
-    <t>Inisiatif untuk mengurangi penggunaan plastik sekali pakai dan menggantinya dengan alternatif ramah lingkungan.</t>
-  </si>
-  <si>
-    <t>PASHA HUSAENI KAFIL</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program rehabilitasi bagi mantan narapidana untuk memfasilitasi reintegrasi sosial.</t>
-  </si>
-  <si>
-    <t>FAUZI AHMAD AL GHIFARI</t>
-  </si>
-  <si>
-    <t>Monopoli pasar oleh perusahaan besar membuat usaha kecil dan menengah sulit bersaing, mengurangi kesempatan mereka untuk berkembang dan menciptakan lapangan kerja.</t>
-  </si>
-  <si>
-    <t>GHANIY YAZID KHAIRY</t>
-  </si>
-  <si>
-    <t>Program beasiswa pendidikan sangat dibutuhkan untuk membantu anak-anak muda di wilayah kami mengakses pendidikan tinggi.</t>
-  </si>
-  <si>
-    <t>FARHAN RAMADANI</t>
-  </si>
-  <si>
-    <t>Program penyuluhan kesehatan mental untuk mengurangi stigma dan meningkatkan pemahaman masyarakat.</t>
-  </si>
-  <si>
-    <t>2024-12-09</t>
-  </si>
-  <si>
-    <t>IKIN MUNASIKIN</t>
-  </si>
-  <si>
-    <t>Biaya pendidikan tinggi yang tidak terjangkau bagi banyak keluarga menyebabkan anak-anak dari keluarga kurang mampu tidak dapat melanjutkan ke perguruan tinggi.</t>
-  </si>
-  <si>
-    <t>DIDAN ALAFGANI</t>
-  </si>
-  <si>
-    <t>Kurangnya investasi dalam sektor pendidikan membuat banyak sekolah kekurangan fasilitas dan tenaga pengajar berkualitas, mempengaruhi mutu pendidikan.</t>
-  </si>
-  <si>
-    <t>MIMI</t>
-  </si>
-  <si>
-    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, menghalangi partisipasi mereka dalam kehidupan sosial dan ekonomi lokal.</t>
-  </si>
-  <si>
-    <t>IMAT ISMATULLOH</t>
-  </si>
-  <si>
-    <t>kondisi jalan yang kumuh dan tidak terawat rawan-.</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke fasilitas kesehatan, memperlambat penanganan darurat dan perawatan medis.</t>
-  </si>
-  <si>
-    <t>UPIN SITI SOPIAH</t>
-  </si>
-  <si>
-    <t>Gaji yang tidak sebanding dengan jam kerja membuat banyak pekerja hidup pas-pasan. Biaya hidup yang tinggi menyebabkan banyak keluarga sulit menabung.</t>
-  </si>
-  <si>
-    <t>DIDI KUSNADI</t>
-  </si>
-  <si>
-    <t>Banyaknya pekerja anak di sektor informal menunjukkan masalah kemiskinan yang membuat anak-anak harus bekerja untuk membantu ekonomi keluarga.</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>RIANKA PUTRA RAMADHAN</t>
-  </si>
-  <si>
-    <t>Jembatan yang tidak terawat, mengancam keselamatan transportasi dan mengisolasi wilayah.</t>
-  </si>
-  <si>
-    <t>IRSYAD MEKKA ELVANO</t>
-  </si>
-  <si>
-    <t>Praktik kerja paksa yang masih terjadi di beberapa sektor menunjukkan lemahnya pengawasan dan penegakan hukum dalam perlindungan hak pekerja.</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIFKI HAIDAR</t>
-  </si>
-  <si>
-    <t>Perlindungan lingkungan hidup harus menjadi prioritas utama. Kami membutuhkan langkah-langkah untuk melindungi habitat alami dan keanekaragaman hayati.</t>
-  </si>
-  <si>
-    <t>VINA AMINATU ZAHRA</t>
-  </si>
-  <si>
-    <t>Program pelatihan keamanan siber untuk meningkatkan kesadaran tentang ancaman di dunia digital.</t>
-  </si>
-  <si>
-    <t>ACIM DARSIM NURDIN</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap perumahan yang layak dan terjangkau, menyebabkan masalah perumahan bagi banyak keluarga.</t>
-  </si>
-  <si>
-    <t>FAKHRI RIDHO DWI PERMANA BUDIYANTO</t>
-  </si>
-  <si>
-    <t>Ketersediaan air bersih yang minim, meningkatkan risiko penyakit.</t>
-  </si>
-  <si>
-    <t>SOPIATUL FAUZIAH</t>
-  </si>
-  <si>
-    <t>Kekurangan tenaga medis di daerah terpencil membuat layanan kesehatan tidak optimal dan banyak warga tidak mendapatkan perawatan yang mereka butuhkan.</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>SOLEH YANTO</t>
-  </si>
-  <si>
-    <t>Tidak adanya fasilitas penyeberangan untuk hewan di jalan raya.</t>
-  </si>
-  <si>
-    <t>MUHAMAD ZAHFAL NURFUADI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi inisiatif pengembangan kawasan pedesaan untuk mendorong pertumbuhan ekonomi lokal.</t>
-  </si>
-  <si>
-    <t>JAJANG JAENUDIN</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya program kreativitas seni untuk meningkatkan apresiasi seni di kalangan masyarakat.</t>
-  </si>
-  <si>
-    <t>RIZKI NURHIDAYAT</t>
-  </si>
-  <si>
-    <t>Kualitas jalan pedesaan yang buruk, membatasi akses petani ke pasar dan meningkatkan biaya transportasi.</t>
-  </si>
-  <si>
-    <t>WARHUM</t>
-  </si>
-  <si>
-    <t>Kekurangan dokter dan tenaga medis, menghambat pelayanan kesehatan.</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NUR</t>
-  </si>
-  <si>
-    <t>Kurangnya akses ke air bersih di pedesaan membuat biaya hidup meningkat, karena banyak warga harus membeli air bersih untuk keperluan sehari-hari.</t>
-  </si>
-  <si>
-    <t>OTONG HIDAYAT</t>
-  </si>
-  <si>
-    <t>Tidak ada jalur khusus transportasi umum, menyebabkan kemacetan.</t>
-  </si>
-  <si>
-    <t>2024-12-12</t>
-  </si>
-  <si>
-    <t>MARKUS</t>
-  </si>
-  <si>
-    <t>Pendidikan tentang pentingnya pola makan sehat dan gaya hidup aktif harus diintensifkan untuk mengatasi masalah kesehatan masyarakat.</t>
-  </si>
-  <si>
-    <t>ABDUL ROJIKIN</t>
-  </si>
-  <si>
-    <t>Keterbatasan aksesibilitas bagi penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>DINI INDRIANI</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan pendapatan dan kesenjangan sosial yang semakin lebar, menciptakan keresahan di kalangan masyarakat.</t>
-  </si>
-  <si>
-    <t>TUTI MULYATI</t>
-  </si>
-  <si>
-    <t>Pasokan air tidak teratur, menyulitkan kebutuhan sehari-hari kami.</t>
-  </si>
-  <si>
-    <t>AHEN</t>
-  </si>
-  <si>
-    <t>Persaingan ketat di dunia kerja membuat banyak lulusan baru kesulitan mencari pekerjaan yang layak, sementara kebutuhan hidup terus meningkat.</t>
-  </si>
-  <si>
-    <t>AI PIDATUL BARIAH</t>
-  </si>
-  <si>
-    <t>Banyak produk palsu, merugikan konsumen dan produsen asli.</t>
-  </si>
-  <si>
-    <t>HJ CICIH WIARSIH</t>
-  </si>
-  <si>
-    <t>Kurangnya program pelatihan keterampilan, membatasi kemajuan karier kami.</t>
-  </si>
-  <si>
-    <t>2024-12-13</t>
-  </si>
-  <si>
-    <t>ARUN FADILAH</t>
-  </si>
-  <si>
-    <t>Peningkatan aksesibilitas transportasi bagi penyandang disabilitas akan membantu memastikan inklusivitas masyarakat kami.</t>
-  </si>
-  <si>
-    <t>IWAN KHARISMAN</t>
-  </si>
-  <si>
-    <t>Kebutuhan internet untuk pendidikan dan pekerjaan seringkali tidak terpenuhi di daerah terpencil, membuat masyarakat tertinggal dalam kesempatan ekonomi.</t>
-  </si>
-  <si>
-    <t>ADE CUCUM</t>
-  </si>
-  <si>
-    <t>Penghasilan pekerja migran tidak menentu, seringkali dipotong biaya agen, dan tanpa perlindungan yang memadai di negara tujuan, memperburuk kondisi ekonomi keluarga.</t>
-  </si>
-  <si>
-    <t>HOPSOH HARYATI</t>
-  </si>
-  <si>
-    <t>Peningkatan kualitas air sungai dan sungai di sekitar wilayah kami.</t>
-  </si>
-  <si>
-    <t>NIA KORINA</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan masyarakat lokal dalam mengelola sumber daya alam untuk keberlanjutan lingkungan.</t>
-  </si>
-  <si>
-    <t>DAESIH</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan gender yang masih ada dalam berbagai aspek kehidupan, termasuk di tempat kerja dan dalam lingkungan domestik.</t>
-  </si>
-  <si>
-    <t>ATONG DEDI</t>
-  </si>
-  <si>
-    <t>Upah minimum yang tidak cukup untuk menutupi biaya hidup di kota besar, menyebabkan banyak pekerja hidup dalam kondisi yang memprihatinkan.</t>
-  </si>
-  <si>
-    <t>2024-12-14</t>
-  </si>
-  <si>
-    <t>NIDA MILATINA</t>
-  </si>
-  <si>
-    <t>Pencemaran lingkungan yang semakin parah akibat aktivitas industri tidak terkendali merugikan kesehatan warga dan mengurangi kualitas hidup.</t>
-  </si>
-  <si>
-    <t>YAYAH BADRIAH</t>
-  </si>
-  <si>
-    <t>Kurangnya pelatihan kerja dari pemerintah membuat banyak pekerja kurang memiliki keterampilan yang dibutuhkan pasar kerja, sehingga mereka sulit bersaing.</t>
-  </si>
-  <si>
-    <t>OYOM</t>
-  </si>
-  <si>
-    <t>Kami ingin melihat adanya program peningkatan kualitas air minum di wilayah kami.</t>
-  </si>
-  <si>
-    <t>WAKIAH</t>
-  </si>
-  <si>
-    <t>Pengangguran di desa menyebabkan banyak orang bermigrasi ke kota, namun tanpa keahlian yang memadai, mereka akhirnya kesulitan mendapatkan pekerjaan.</t>
-  </si>
-  <si>
-    <t>EMBUN</t>
-  </si>
-  <si>
-    <t>Harga pupuk dan pestisida yang mahal, membebani petani kecil.</t>
-  </si>
-  <si>
-    <t>DEVI FITRIANI</t>
-  </si>
-  <si>
-    <t>Ketidakpastian hukum dalam dunia usaha membuat banyak pengusaha kecil dan menengah ragu untuk mengembangkan bisnis mereka lebih lanjut.</t>
-  </si>
-  <si>
-    <t>HADRI NURUL HUDA</t>
-  </si>
-  <si>
-    <t>kendaraan umum yang sulit dijumpai di wilayah terpencil.</t>
-  </si>
-  <si>
-    <t>2024-12-15</t>
-  </si>
-  <si>
-    <t>ADNAN</t>
-  </si>
-  <si>
-    <t>Tidak cukupnya fasilitas kesehatan, menyulitkan akses masyarakat terhadap perawatan medis yang berkualitas.</t>
-  </si>
-  <si>
-    <t>SURYAMAN</t>
-  </si>
-  <si>
-    <t>Layanan kesehatan yang kurang memadai, sulit untuk mendapatkan perawatan medis.</t>
-  </si>
-  <si>
-    <t>ADE NURAENI</t>
-  </si>
-  <si>
-    <t>Jalan rusak parah, mengganggu kelancaran lalu lintas dan merusak kendaraan.</t>
-  </si>
-  <si>
-    <t>SITI YULIANTI</t>
-  </si>
-  <si>
-    <t>Perlindungan terhadap hak-hak anak perlu diprioritaskan. Kami ingin melihat keamanan dan kesejahteraan anak-anak diutamakan.</t>
-  </si>
-  <si>
-    <t>IIK NURHIKMAT</t>
-  </si>
-  <si>
-    <t>Banyaknya pekerja informal tidak memiliki jaminan sosial, sehingga rentan saat menghadapi krisis ekonomi atau masalah kesehatan yang tiba-tiba.</t>
-  </si>
-  <si>
-    <t>YAYAN TRIYANSYAH</t>
-  </si>
-  <si>
-    <t>Peningkatan aksesibilitas fasilitas publik bagi penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>H. MUHAMAD SLAMET</t>
-  </si>
-  <si>
-    <t>Pandemi menambah angka pengangguran karena banyak perusahaan yang mengurangi tenaga kerja atau menutup usaha, memperburuk situasi ekonomi.</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
-    <t>SHAKIRA AZ-ZAHRA</t>
-  </si>
-  <si>
-    <t>Tidak adanya dukungan sosial bagi kaum lanjut usia, meningkatkan risiko kesepian dan ketergantungan.</t>
-  </si>
-  <si>
-    <t>HERI SUHAERI</t>
-  </si>
-  <si>
-    <t>Biaya transportasi yang tinggi untuk distribusi barang ke daerah terpencil menyebabkan harga kebutuhan pokok di daerah tersebut jauh lebih mahal.</t>
-  </si>
-  <si>
-    <t>TARJO</t>
-  </si>
-  <si>
-    <t>Kurangnya dukungan untuk industri kreatif lokal membuat banyak talenta muda kesulitan mengembangkan bakat mereka dan bersaing di pasar global.</t>
-  </si>
-  <si>
-    <t>BUNGA ELISA</t>
-  </si>
-  <si>
-    <t>Harga sembako yang fluktuatif membuat sulit untuk mengatur keuangan rumah tangga. Setiap kenaikan harga berdampak langsung pada pengeluaran harian.</t>
-  </si>
-  <si>
-    <t>JUJU JUHARIAH</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya program konservasi satwa liar di wilayah alam sekitar kami.</t>
-  </si>
-  <si>
-    <t>RAIQA AINAYA MARWAH</t>
-  </si>
-  <si>
-    <t>Akses internet lambat atau tidak ada, menghambat akses informasi dan pendidikan.</t>
-  </si>
-  <si>
-    <t>HOTIAH</t>
-  </si>
-  <si>
-    <t>Krisis air bersih di beberapa daerah menyebabkan banyak warga kesulitan mendapatkan air untuk kebutuhan sehari-hari, mempengaruhi kesehatan dan produktivitas.</t>
-  </si>
-  <si>
-    <t>2024-12-17</t>
-  </si>
-  <si>
-    <t>SAHNAN</t>
-  </si>
-  <si>
-    <t>Kesenjangan ekonomi semakin terasa karena distribusi sumber daya yang tidak merata, membuat daerah tertinggal sulit mengejar pembangunan.</t>
-  </si>
-  <si>
-    <t>ARI SETIAWAN</t>
-  </si>
-  <si>
-    <t>Kemacetan lalu lintas yang parah, menyebabkan waktu tempuh yang lama.</t>
-  </si>
-  <si>
-    <t>GILANG SUHERMAN</t>
-  </si>
-  <si>
-    <t>Peningkatan pengelolaan limbah medis untuk menghindari risiko pencemaran lingkungan.</t>
-  </si>
-  <si>
-    <t>Kurangnya kesadaran akan isu-isu sosial, menghambat upaya pembangunan masyarakat yang inklusif.</t>
-  </si>
-  <si>
-    <t>ROHMAH</t>
-  </si>
-  <si>
-    <t>Banjir sering terjadi, merusak tanaman dan infrastruktur kami.</t>
-  </si>
-  <si>
-    <t>Listrik sering mati, mengganggu kegiatan sehari-hari kami.</t>
-  </si>
-  <si>
-    <t>AIM TRI RAMDANI</t>
-  </si>
-  <si>
-    <t>Program pengembangan keterampilan teknologi informasi harus tersedia untuk semua lapisan masyarakat.</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>ZIHAD MUHAMAD NUR RIZKI</t>
-  </si>
-  <si>
-    <t>Isolasi dari layanan hiburan dan rekreasi, menyebabkan kebosanan dan kurangnya kegiatan positif.</t>
-  </si>
-  <si>
-    <t>KANAYA ANUGRAH</t>
-  </si>
-  <si>
-    <t>Kurangnya lapangan kerja, menyebabkan tingginya tingkat pengangguran di pedesaan.</t>
-  </si>
-  <si>
-    <t>SITI ROHMATUL MUNAWAROH</t>
-  </si>
-  <si>
-    <t>Persaingan usaha tidak sehat, usaha kecil sulit bertahan.</t>
-  </si>
-  <si>
-    <t>TARSO</t>
-  </si>
-  <si>
-    <t>Kelistrikan sering terganggu akibat cuaca ekstrem.</t>
-  </si>
-  <si>
-    <t>DODO</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan perempuan dalam bisnis dan kewirausahaan.</t>
-  </si>
-  <si>
-    <t>AFTAN VIILHAMI ZULFIKRI</t>
-  </si>
-  <si>
-    <t>Pemanfaatan teknologi yang rendah di sektor pertanian menyebabkan produktivitas petani tidak maksimal dan pendapatan</t>
-  </si>
-  <si>
-    <t>TIOH</t>
-  </si>
-  <si>
-    <t>Kurangnya perawatan rutin, membuat jalan semakin buruk.</t>
-  </si>
-  <si>
-    <t>2024-12-19</t>
-  </si>
-  <si>
-    <t>ANDIKA RAMADHAN</t>
-  </si>
-  <si>
-    <t>Ketidakstabilan harga bahan bakar minyak membuat biaya transportasi naik, mengurangi daya beli masyarakat terutama yang bergantung pada angkutan umum.</t>
-  </si>
-  <si>
-    <t>EMAN</t>
-  </si>
-  <si>
-    <t>Kami menghadapi tantangan ekonomi berat, terutama karena adanya dampak pandemi COVID-19. Banyak usaha kecil tutup, dan pengangguran meningkat.</t>
-  </si>
-  <si>
-    <t>QA'IS APRIATURRAHMAN</t>
-  </si>
-  <si>
-    <t>Kurangnya rambu lalu lintas yang jelas dan terawat, membingungkan pengguna jalan.</t>
-  </si>
-  <si>
-    <t>AZIZ MUHAMAD SARIP</t>
-  </si>
-  <si>
-    <t>Tingkat pengangguran yang tinggi di daerah pedesaan membuat banyak warga harus merantau ke kota besar untuk mencari pekerjaan yang layak.</t>
-  </si>
-  <si>
-    <t>DIMAS</t>
-  </si>
-  <si>
-    <t>Isolasi sosial, membuat masyarakat pedesaan merasa terpinggirkan dari perkembangan sosial dan budaya.</t>
-  </si>
-  <si>
-    <t>KODRIAH</t>
-  </si>
-  <si>
-    <t>Disparitas upah antara laki-laki dan perempuan menunjukkan ketidakadilan gender dalam pasar kerja yang perlu segera diatasi.</t>
-  </si>
-  <si>
-    <t>ABDUL AZIZ</t>
-  </si>
-  <si>
-    <t>Fluktuasi nilai tukar mata uang yang tidak stabil menyebabkan harga barang impor menjadi mahal, menambah beban masyarakat yang bergantung pada barang tersebut.</t>
-  </si>
-  <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>KIKI BAHRUL ILMI</t>
-  </si>
-  <si>
-    <t>Kurangnya trotoar yang aman, mengancam keselamatan pejalan kaki.</t>
-  </si>
-  <si>
-    <t>ACHMAD JALAL</t>
-  </si>
-  <si>
-    <t>Ketidakpastian hukum dalam dunia usaha membuat investor ragu untuk menanamkan modal, menghambat pertumbuhan ekonomi dan penciptaan lapangan kerja.</t>
-  </si>
-  <si>
-    <t>LINA</t>
-  </si>
-  <si>
-    <t>Minimnya jaminan sosial untuk pekerja sektor informal menyebabkan mereka tidak memiliki perlindungan saat menghadapi situasi darurat atau pensiun.</t>
-  </si>
-  <si>
-    <t>DAYAT SUPRIATNA</t>
-  </si>
-  <si>
-    <t>Pajak yang tinggi bagi UMKM membuat banyak usaha kecil kesulitan berkembang. Mereka membutuhkan insentif agar bisa bersaing dengan usaha besar.</t>
-  </si>
-  <si>
-    <t>KOKO</t>
-  </si>
-  <si>
-    <t>Kendaraan parkir sembarangan di jalan, menyebabkan kemacetan dan kekacauan.</t>
-  </si>
-  <si>
-    <t>UJU JUARSIH</t>
-  </si>
-  <si>
-    <t>Nilai tukar rupiah yang tidak stabil mengakibatkan harga bahan baku naik, membuat pengusaha kecil kesulitan menjaga harga produk agar tetap kompetitif.</t>
-  </si>
-  <si>
-    <t>NURHIDAYAH</t>
-  </si>
-  <si>
-    <t>Perubahan iklim yang tidak menentu membuat banyak petani mengalami gagal panen, mengurangi produksi pangan dan pendapatan mereka secara signifikan.</t>
-  </si>
-  <si>
-    <t>2024-12-21</t>
-  </si>
-  <si>
-    <t>ADITYA KAMANDITA</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program peningkatan literasi finansial di kalangan masyarakat kami.</t>
-  </si>
-  <si>
-    <t>PINA RAHMATUL UMAH</t>
-  </si>
-  <si>
-    <t>Kami berharap ada program bantuan bagi keluarga yang terkena dampak bencana alam untuk memulihkan kehidupan mereka.</t>
-  </si>
-  <si>
-    <t>SUKIMI</t>
-  </si>
-  <si>
-    <t>Pembangunan yang tidak merata membuat banyak desa tertinggal dalam hal infrastruktur, layanan kesehatan, dan pendidikan, memperparah ketimpangan sosial.</t>
-  </si>
-  <si>
-    <t>MAMAN HERMANA</t>
-  </si>
-  <si>
-    <t>Perlunya program pembangunan infrastruktur ramah lingkungan seperti jalur sepeda dan trotoar pejalan kaki.</t>
-  </si>
-  <si>
-    <t>IIS TRISNAWATI</t>
-  </si>
-  <si>
-    <t>Krisis pangan global berdampak pada harga kebutuhan pokok yang terus meningkat, sementara penghasilan masyarakat tidak mengikuti laju kenaikan tersebut.</t>
-  </si>
-  <si>
-    <t>ATIK SANTIKA</t>
-  </si>
-  <si>
-    <t>Sulitnya mendapatkan akses ke layanan telekomunikasi, mengisolasi kami dari dunia luar.</t>
-  </si>
-  <si>
-    <t>EGA HENDRIA SURYALAGA</t>
-  </si>
-  <si>
-    <t>Inisiatif penanaman pohon dan pelestarian hutan untuk mengurangi dampak perubahan iklim.</t>
-  </si>
-  <si>
-    <t>2024-12-22</t>
-  </si>
-  <si>
-    <t>KUSTIAWAN</t>
-  </si>
-  <si>
-    <t>Ketidakpastian ekonomi global mempengaruhi ekspor dan impor Indonesia, membuat perekonomian nasional rentan terhadap fluktuasi internasional.</t>
-  </si>
-  <si>
-    <t>ENGKUS KUSNAWAN</t>
-  </si>
-  <si>
-    <t>Biaya kesehatan yang mahal menyebabkan banyak keluarga kesulitan membayar pengobatan, terutama untuk penyakit kronis yang memerlukan perawatan jangka panjang.</t>
-  </si>
-  <si>
-    <t>SUJIMAH</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke pasar, sulit untuk menjual hasil pertanian kami.</t>
-  </si>
-  <si>
-    <t>CARKI</t>
-  </si>
-  <si>
-    <t>Program edukasi tentang bahaya narkoba dan cara mencegahnya harus diperkenalkan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>WAWAN KUSWANDI</t>
-  </si>
-  <si>
-    <t>Permasalahan budaya juga menjadi concern. Pentingnya pelestarian budaya lokal harus diimbangi dengan upaya perlindungan terhadap kearifan lokal yang terus terancam.</t>
-  </si>
-  <si>
-    <t>AZRIEL AHMAD HIDAYAT</t>
-  </si>
-  <si>
-    <t>Disparitas ekonomi antara wilayah barat dan timur Indonesia menyebabkan ketidakmerataan pembangunan dan kesenjangan kesejahteraan yang mencolok.</t>
-  </si>
-  <si>
-    <t>RAMADANI</t>
-  </si>
-  <si>
-    <t>Maraknya hutang online berakibat buruk pada kondisi ekonomi keluarga. Banyak yang terjerat bunga tinggi sehingga sulit melunasi hutang.</t>
-  </si>
-  <si>
-    <t>2024-12-23</t>
-  </si>
-  <si>
-    <t>IRMA SRI SURYANTINI</t>
-  </si>
-  <si>
-    <t>Kualitas jaringan telepon seluler buruk di beberapa area.</t>
-  </si>
-  <si>
-    <t>DENIS ANDRIANSYAH</t>
-  </si>
-  <si>
-    <t>Program penghijauan atap bangunan untuk mengurangi efek pemanasan kota.</t>
-  </si>
-  <si>
-    <t>RYAN HIDAYAT</t>
-  </si>
-  <si>
-    <t>Krisis ekonomi global menyebabkan daya beli masyarakat turun. Ini mengakibatkan penjualan usaha kecil menurun drastis, membahayakan keberlanjutan usaha.</t>
-  </si>
-  <si>
-    <t>ABUN BUNYAMIN</t>
-  </si>
-  <si>
-    <t>Biaya sewa kios yang mahal menyulitkan pedagang kecil untuk bertahan, terutama di kota besar di mana harga sewa semakin tinggi.</t>
-  </si>
-  <si>
-    <t>INARROTU DUJA AGUS PRATIWI</t>
-  </si>
-  <si>
-    <t>Kebutuhan perluasan jalan tidak terpenuhi, menyebabkan kemacetan terus bertambah.</t>
-  </si>
-  <si>
-    <t>HASIM</t>
-  </si>
-  <si>
-    <t>Masalah kesehatan mental yang diabaikan sering membuat produktivitas menurun, mengakibatkan dampak ekonomi jangka panjang pada keluarga.</t>
-  </si>
-  <si>
-    <t>ENDAS</t>
-  </si>
-  <si>
-    <t>Kenaikan harga bahan pokok mempersulit kebutuhan sehari-hari, sementara pendapatan masih tetap rendah. Kebutuhan semakin tinggi, namun daya beli makin melemah.</t>
-  </si>
-  <si>
-    <t>2024-12-24</t>
-  </si>
-  <si>
-    <t>SALSA BILA</t>
-  </si>
-  <si>
-    <t>Kami membutuhkan perbaikan infrastruktur dasar seperti jalan dan saluran air. Musim hujan seringkali membawa banjir ke wilayah kami.</t>
-  </si>
-  <si>
-    <t>ENJEN JENAL</t>
-  </si>
-  <si>
-    <t>Tingkat perceraian yang tinggi di beberapa daerah terkait dengan tekanan ekonomi yang membuat kehidupan rumah tangga menjadi tidak harmonis.</t>
-  </si>
-  <si>
-    <t>ALVIN SAKHI ZAIDAN</t>
-  </si>
-  <si>
-    <t>Dukungan untuk pengembangan pertanian lokal akan membantu memperkuat ketahanan pangan komunitas kami.</t>
-  </si>
-  <si>
-    <t>E.KOSWARA</t>
-  </si>
-  <si>
-    <t>Pertumbuhan ekonomi yang tidak merata seringkali hanya dinikmati oleh segelintir elit, sementara sebagian besar masyarakat tetap hidup dalam kemiskinan.</t>
-  </si>
-  <si>
-    <t>SUHARTINI</t>
-  </si>
-  <si>
-    <t>Banyaknya anak putus sekolah karena alasan ekonomi menunjukkan masalah serius dalam akses pendidikan yang merata dan terjangkau.</t>
-  </si>
-  <si>
-    <t>TITA HENDARTI</t>
-  </si>
-  <si>
-    <t>Kami perlu dukungan lebih lanjut dalam mengembangkan potensi pariwisata lokal. Ini dapat membantu meningkatkan ekonomi dan mengangkat citra wilayah kami.</t>
-  </si>
-  <si>
-    <t>Jalan berlubang yang berbahaya bagi pengendara sepeda motor dan pengguna jalan lainnya.</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>NITA SRI ROSDIANA</t>
-  </si>
-  <si>
-    <t>Birokrasi perizinan usaha sulit dan memakan waktu.</t>
-  </si>
-  <si>
-    <t>EVA NOPIAH</t>
-  </si>
-  <si>
-    <t>Kemacetan lalu lintas di kota besar menyebabkan banyak warga kehilangan waktu produktif dan meningkatkan biaya transportasi harian.</t>
-  </si>
-  <si>
-    <t>AWAN RUSTIAWAN</t>
-  </si>
-  <si>
-    <t>Kami berharap adanya program untuk mengatasi masalah perumahan yang layak bagi warga yang kurang mampu.</t>
-  </si>
-  <si>
-    <t>DARA ANDRA SATRIANA SAPUTRA</t>
-  </si>
-  <si>
-    <t>Diskriminasi terhadap minoritas etnis, menyebabkan ketidakadilan dan ketegangan sosial di masyarakat.</t>
-  </si>
-  <si>
-    <t>MUHAMAD DAFA ALFATIH</t>
-  </si>
-  <si>
-    <t>Inisiatif peningkatan kebersihan lingkungan sekitar sekolah untuk menciptakan lingkungan pembelajaran yang baik.</t>
-  </si>
-  <si>
-    <t>SADILI</t>
-  </si>
-  <si>
-    <t>Tingginya angka kemiskinan di daerah pesisir menunjukkan masih banyaknya warga yang bergantung pada sektor perikanan yang rentan terhadap perubahan iklim.</t>
-  </si>
-  <si>
-    <t>MUHAMAD FACHRUL NOER ARIFIN</t>
-  </si>
-  <si>
-    <t>Perluasan fasilitas olahraga publik akan memberikan lebih banyak opsi rekreasi untuk warga, khususnya anak-anak dan remaja.</t>
-  </si>
-  <si>
-    <t>2024-12-26</t>
-  </si>
-  <si>
-    <t>LYNDA HERNAWATY</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya ruang kreatif untuk pertemuan masyarakat dan diskusi komunitas.</t>
-  </si>
-  <si>
-    <t>AURORA NABILAH</t>
-  </si>
-  <si>
-    <t>Kebijakan impor bahan pangan yang tinggi menyebabkan produk lokal sulit bersaing, membuat petani lokal kesulitan meningkatkan pendapatan.</t>
-  </si>
-  <si>
-    <t>TITIN</t>
-  </si>
-  <si>
-    <t>Keamanan menjadi perhatian utama. Kami membutuhkan peningkatan patroli keamanan dan kerjasama dengan kepolisian untuk mengatasi peningkatan kejahatan di lingkungan kami.</t>
-  </si>
-  <si>
-    <t>PIRMAN ALI NURDIN</t>
-  </si>
-  <si>
-    <t>Ketidakstabilan politik seringkali mengganggu iklim investasi dan pertumbuhan ekonomi, membuat investor ragu untuk menanamkan modal di Indonesia.</t>
-  </si>
-  <si>
-    <t>ENOK ULFAH</t>
-  </si>
-  <si>
-    <t>Kurangnya perhatian pemerintah terhadap infrastruktur pedesaan, menyebabkan kemunduran.</t>
-  </si>
-  <si>
-    <t>AJENG WALUYO</t>
-  </si>
-  <si>
-    <t>Warga kami membutuhkan dukungan ekonomi untuk membuka usaha kecil-kecilan. Kami berharap ada program bantuan modal untuk meningkatkan perekonomian lokal.</t>
-  </si>
-  <si>
-    <t>IREN AMELIA</t>
-  </si>
-  <si>
-    <t>Program mentoring untuk membantu pemuda dalam merencanakan karir dan mencapai potensi penuh mereka.</t>
-  </si>
-  <si>
-    <t>2024-12-27</t>
-  </si>
-  <si>
-    <t>Kurangnya lapangan pekerjaan menyebabkan banyak orang memilih pekerjaan serabutan dengan pendapatan yang tidak menentu, mengganggu kestabilan ekonomi.</t>
-  </si>
-  <si>
-    <t>MUHAMAD RIFQI ABU BAKAR</t>
-  </si>
-  <si>
-    <t>Minimnya akses terhadap kredit mikro bagi pengusaha kecil membuat mereka kesulitan untuk memulai atau mengembangkan usaha mereka.</t>
-  </si>
-  <si>
-    <t>AZI NUR RAMADHAN</t>
-  </si>
-  <si>
-    <t>Kami mendukung ide untuk membuat taman publik sebagai tempat rekreasi dan pertemuan sosial bagi warga.</t>
-  </si>
-  <si>
-    <t>DENDRA RADITYA RAMADHAN</t>
-  </si>
-  <si>
-    <t>Krisis ekonomi global berdampak pada sektor industri lokal, mengurangi kesempatan kerja dan menyebabkan banyak pekerja di-PHK.</t>
-  </si>
-  <si>
-    <t>AMIRA ANINDYA PUTRI</t>
-  </si>
-  <si>
-    <t>Infrastruktur pendidikan yang minim di daerah terpencil membuat kualitas pendidikan rendah dan anak-anak sulit bersaing di tingkat nasional.</t>
-  </si>
-  <si>
-    <t>DAYITI</t>
-  </si>
-  <si>
-    <t>Penyediaan ruang terbuka hijau di perkotaan akan meningkatkan kualitas hidup dan kesejahteraan warga.</t>
-  </si>
-  <si>
-    <t>TAMARA HAFSARI</t>
-  </si>
-  <si>
-    <t>Akses terhadap layanan kesehatan mental yang minim menyebabkan banyak warga yang mengalami masalah psikologis tidak mendapatkan bantuan yang mereka butuhkan.</t>
-  </si>
-  <si>
-    <t>2024-12-28</t>
-  </si>
-  <si>
-    <t>AMINULOH</t>
-  </si>
-  <si>
-    <t>Kebersihan dan pengelolaan sampah perlu ditingkatkan. Program pengelolaan sampah yang baik akan menjaga keindahan lingkungan kami.</t>
-  </si>
-  <si>
-    <t>TARMAN</t>
-  </si>
-  <si>
-    <t>Banyak masyarakat yang merasa khawatir karena harga pangan yang sering berfluktuasi dan sulit diprediksi.</t>
-  </si>
-  <si>
-    <t>ENDED DEDI</t>
-  </si>
-  <si>
-    <t>Pentingnya kesetaraan gender perlu terus ditekankan. Kami ingin melihat lebih banyak kesempatan setara bagi perempuan di berbagai bidang.</t>
-  </si>
-  <si>
-    <t>NITA</t>
-  </si>
-  <si>
-    <t>Pentingnya pendidikan karakter perlu ditekankan lebih lanjut. Kami ingin melihat generasi muda kami tumbuh menjadi individu yang bertanggung jawab dan beretika.</t>
-  </si>
-  <si>
-    <t>TATI</t>
-  </si>
-  <si>
-    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, membatasi partisipasi mereka dalam kehidupan sosial dan ekonomi.</t>
-  </si>
-  <si>
-    <t>LUAY</t>
-  </si>
-  <si>
-    <t>Pipa air tua sering bocor dan mengganggu pasokan air.</t>
-  </si>
-  <si>
-    <t>ELAH LAELASARI</t>
-  </si>
-  <si>
-    <t>Sistem keuangan yang tidak inklusif membuat banyak warga kesulitan membuka rekening bank, padahal akses ke layanan keuangan penting untuk meningkatkan ekonomi.</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>ENGKUS KUSNADI</t>
-  </si>
-  <si>
-    <t>Peningkatan pelayanan kesehatan mental di wilayah kami, termasuk akses ke konseling.</t>
-  </si>
-  <si>
-    <t>RAFAN GHIFARI ABDILLAH</t>
-  </si>
-  <si>
-    <t>Penggunaan lahan yang tidak terencana menyebabkan kerusakan lingkungan dan kehilangan lahan produktif yang penting bagi pertanian.</t>
-  </si>
-  <si>
-    <t>HASAN SUANDI</t>
-  </si>
-  <si>
-    <t>Masalah kekerasan dalam rumah tangga, merusak hubungan interpersonal dan kesejahteraan keluarga.</t>
-  </si>
-  <si>
-    <t>WAWAN IRAWAN</t>
-  </si>
-  <si>
-    <t>Akses modal yang sulit bagi usaha kecil dan menengah membuat mereka kesulitan untuk berkembang dan bersaing dengan perusahaan besar.</t>
-  </si>
-  <si>
-    <t>MAYA KOMALASARI</t>
-  </si>
-  <si>
-    <t>Banyak warga yang tidak memiliki akses ke pendidikan finansial, membuat mereka mudah tertipu investasi bodong atau pengelolaan keuangan yang kurang baik.</t>
-  </si>
-  <si>
-    <t>RACHMAT KUSTIAWAN</t>
-  </si>
-  <si>
-    <t>Layanan telekomunikasi yang tidak memadai, membatasi akses informasi dan kesempatan ekonomi.</t>
-  </si>
-  <si>
-    <t>IRFAN ALFANDY</t>
-  </si>
-  <si>
-    <t>Kurangnya akses terhadap layanan kesehatan mental, meningkatkan risiko masalah kesehatan jiwa di pedesaan.</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>Kami mendukung inisiatif untuk melestarikan warisan arsitektur dan bangunan bersejarah di wilayah kami.</t>
-  </si>
-  <si>
-    <t>Peningkatan infrastruktur untuk mendukung pengembangan industri kecil dan menengah lokal.</t>
-  </si>
-  <si>
-    <t>WILDAN SUPRIATNA</t>
-  </si>
-  <si>
-    <t>Dukungan untuk industri kreatif lokal, seperti kerajinan tangan dan seni rupa, akan membantu meningkatkan perekonomian seniman lokal.</t>
-  </si>
-  <si>
-    <t>TUTI ALAWIAH</t>
-  </si>
-  <si>
-    <t>Kami mendukung inisiatif untuk menciptakan ruang publik yang aman dan bersih bagi anak-anak dan keluarga.</t>
-  </si>
-  <si>
-    <t>NOPIYANTI</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan generasi muda melalui kegiatan seni dan budaya.</t>
-  </si>
-  <si>
-    <t>AHMAD NASIRIN</t>
-  </si>
-  <si>
-    <t>Pengurangan subsidi BBM mengakibatkan kenaikan biaya produksi dan distribusi, membuat harga barang-barang kebutuhan pokok semakin tinggi.</t>
-  </si>
-  <si>
-    <t>MAMAH MUSTAKIMAH</t>
-  </si>
-  <si>
-    <t>Program rehabilitasi dan perawatan bagi kaum tunawisma perlu ditingkatkan untuk membantu mereka mendapatkan kembali stabilitas hidup.</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
-    <t>Peningkatan infrastruktur telekomunikasi akan memastikan akses internet yang cepat dan andal bagi semua warga.</t>
-  </si>
-  <si>
-    <t>Harga pupuk dan pestisida yang naik drastis membuat petani kesulitan mendapatkan hasil yang menguntungkan, menyebabkan kerugian yang besar.</t>
-  </si>
-  <si>
-    <t>IMELDA SARI</t>
-  </si>
-  <si>
-    <t>Kami berharap adanya program perbaikan dan pemeliharaan sarana olahraga yang sudah ada di wilayah kami.</t>
-  </si>
-  <si>
-    <t>UUN UNAESIH</t>
-  </si>
-  <si>
-    <t>Kurangnya akses terhadap air bersih di beberapa daerah menyebabkan masalah kesehatan yang serius dan mempengaruhi produktivitas masyarakat.</t>
-  </si>
-  <si>
-    <t>IMA HOTIMATUL MUFLIHAH</t>
-  </si>
-  <si>
-    <t>Kurangnya penyeberangan pejalan kaki dan fasilitas untuk penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>AFNI AMELIA RIZKI</t>
-  </si>
-  <si>
-    <t>Kurangnya dukungan terhadap pertanian organik membuat petani kesulitan mengadopsi praktik pertanian yang lebih ramah lingkungan dan berkelanjutan.</t>
-  </si>
-  <si>
-    <t>AHMAD AFFANDI</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke bank dan layanan keuangan, menghambat pertumbuhan ekonomi.</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1689,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,19 +1760,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1906,22 +1783,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1932,22 +1809,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1958,22 +1835,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1984,22 +1861,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2010,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2025,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2033,25 +1910,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2059,25 +1936,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2085,25 +1962,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2111,25 +1988,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2137,19 +2014,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2163,25 +2040,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2189,25 +2066,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2215,19 +2092,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2241,19 +2118,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -2267,25 +2144,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2293,25 +2170,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2319,25 +2196,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2345,25 +2222,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2371,25 +2248,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2397,25 +2274,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2423,25 +2300,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
         <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2449,25 +2326,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2475,25 +2352,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
         <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2501,25 +2378,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
         <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2527,25 +2404,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
         <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2553,25 +2430,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
         <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2579,25 +2456,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2605,25 +2482,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
         <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2631,25 +2508,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
         <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2657,16 +2534,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2675,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2683,25 +2560,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
         <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2709,25 +2586,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2735,25 +2612,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
         <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2761,25 +2638,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
         <v>105</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
         <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2787,25 +2664,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
         <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2813,25 +2690,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
         <v>110</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2839,19 +2716,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
         <v>112</v>
       </c>
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -2865,19 +2742,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -2891,7 +2768,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
         <v>116</v>
@@ -2900,10 +2777,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -2917,19 +2794,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2949,13 +2826,13 @@
         <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -2975,13 +2852,13 @@
         <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -3001,13 +2878,13 @@
         <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -3027,13 +2904,13 @@
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -3050,22 +2927,22 @@
         <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3076,22 +2953,22 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3102,22 +2979,22 @@
         <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3125,25 +3002,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3151,25 +3028,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3177,25 +3054,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3203,25 +3080,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3229,25 +3106,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3255,25 +3132,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3281,25 +3158,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3307,25 +3184,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3333,25 +3210,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3359,25 +3236,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3385,25 +3262,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3411,25 +3288,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3437,25 +3314,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3463,25 +3340,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3489,25 +3366,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3515,25 +3392,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3541,25 +3418,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3567,25 +3444,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3593,25 +3470,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3619,25 +3496,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3645,25 +3522,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3671,25 +3548,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3697,25 +3574,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3723,16 +3600,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -3741,7 +3618,7 @@
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3749,25 +3626,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3775,25 +3652,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3801,25 +3678,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3827,25 +3704,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3853,25 +3730,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3879,25 +3756,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
         <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3905,25 +3782,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3931,25 +3808,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3957,25 +3834,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3983,25 +3860,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4009,25 +3886,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4035,25 +3912,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4061,25 +3938,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4087,25 +3964,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4113,25 +3990,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G89" t="s">
         <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4139,25 +4016,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G90" t="s">
         <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4165,25 +4042,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4191,25 +4068,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4217,25 +4094,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C93" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4243,25 +4120,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4269,25 +4146,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4295,25 +4172,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4321,25 +4198,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4347,25 +4224,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4373,25 +4250,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4399,25 +4276,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4425,25 +4302,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4451,25 +4328,25 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
         <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4477,25 +4354,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="G103" t="s">
         <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4503,25 +4380,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4529,25 +4406,25 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G105" t="s">
         <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4555,25 +4432,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4581,25 +4458,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4607,25 +4484,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4633,25 +4510,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4659,25 +4536,25 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4685,25 +4562,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4711,25 +4588,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4737,25 +4614,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4763,25 +4640,25 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4789,25 +4666,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4815,25 +4692,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4841,25 +4718,25 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E117" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4867,25 +4744,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4893,25 +4770,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C119" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4919,25 +4796,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D120" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4945,25 +4822,25 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4971,25 +4848,25 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4997,25 +4874,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D123" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E123" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5023,25 +4900,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C124" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D124" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5049,25 +4926,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
         <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5075,25 +4952,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C126" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G126" t="s">
         <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5101,25 +4978,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G127" t="s">
         <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5127,25 +5004,25 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G128" t="s">
         <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5153,25 +5030,25 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D129" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G129" t="s">
         <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5179,25 +5056,25 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C130" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
         <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5205,25 +5082,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5231,25 +5108,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C132" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D132" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5257,25 +5134,25 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C133" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D133" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E133" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
         <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5283,25 +5160,25 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C134" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s">
         <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5309,25 +5186,25 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D135" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5335,25 +5212,25 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C136" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E136" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
       </c>
       <c r="H136" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5361,25 +5238,25 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F137" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5387,25 +5264,25 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C138" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5413,25 +5290,25 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C139" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="G139" t="s">
         <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5439,25 +5316,25 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C140" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D140" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5465,25 +5342,25 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C141" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G141" t="s">
         <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5491,25 +5368,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D142" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5517,25 +5394,25 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D143" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5543,25 +5420,25 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G144" t="s">
         <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5569,25 +5446,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G145" t="s">
         <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5595,25 +5472,25 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D146" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5621,25 +5498,25 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C147" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D147" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5647,25 +5524,25 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C148" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F148" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
         <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5673,25 +5550,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C149" t="s">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5699,25 +5576,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C150" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D150" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G150" t="s">
         <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5725,25 +5602,25 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D151" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
         <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5751,25 +5628,25 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D152" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E152" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
         <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5777,25 +5654,25 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E153" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G153" t="s">
         <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5803,25 +5680,25 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5829,25 +5706,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E155" t="s">
         <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5855,25 +5732,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E156" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5881,25 +5758,25 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C157" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E157" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G157" t="s">
         <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5907,25 +5784,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C158" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G158" t="s">
         <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5933,19 +5810,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C159" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="D159" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G159" t="s">
         <v>13</v>
@@ -5959,19 +5836,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s">
         <v>365</v>
       </c>
       <c r="D160" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
         <v>13</v>
@@ -5985,19 +5862,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C161" t="s">
         <v>367</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G161" t="s">
         <v>13</v>
@@ -6011,19 +5888,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C162" t="s">
         <v>369</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F162" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
@@ -6043,13 +5920,13 @@
         <v>372</v>
       </c>
       <c r="D163" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
         <v>13</v>
@@ -6069,13 +5946,13 @@
         <v>374</v>
       </c>
       <c r="D164" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
         <v>13</v>
@@ -6095,13 +5972,13 @@
         <v>376</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="G165" t="s">
         <v>13</v>
@@ -6121,13 +5998,13 @@
         <v>378</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G166" t="s">
         <v>13</v>
@@ -6147,13 +6024,13 @@
         <v>380</v>
       </c>
       <c r="D167" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G167" t="s">
         <v>13</v>
@@ -6173,13 +6050,13 @@
         <v>382</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G168" t="s">
         <v>13</v>
@@ -6196,22 +6073,22 @@
         <v>371</v>
       </c>
       <c r="C169" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="D169" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G169" t="s">
         <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6219,25 +6096,25 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
         <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6245,25 +6122,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G171" t="s">
         <v>13</v>
       </c>
       <c r="H171" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6271,25 +6148,25 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C172" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E172" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G172" t="s">
         <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6297,25 +6174,25 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C173" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E173" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" t="s">
         <v>17</v>
       </c>
-      <c r="F173" t="s">
-        <v>21</v>
-      </c>
       <c r="G173" t="s">
         <v>13</v>
       </c>
       <c r="H173" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6323,16 +6200,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C174" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
@@ -6341,7 +6218,7 @@
         <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6349,25 +6226,25 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C175" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D175" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
         <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6375,25 +6252,25 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C176" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D176" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G176" t="s">
         <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6401,25 +6278,25 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E177" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6427,25 +6304,25 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C178" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F178" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G178" t="s">
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6453,25 +6330,25 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D179" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6479,25 +6356,25 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F180" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G180" t="s">
         <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6505,25 +6382,25 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C181" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D181" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E181" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>13</v>
       </c>
       <c r="H181" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6531,25 +6408,25 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E182" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6557,25 +6434,25 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C183" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D183" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G183" t="s">
         <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6583,16 +6460,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C184" t="s">
-        <v>60</v>
+        <v>417</v>
       </c>
       <c r="D184" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
         <v>17</v>
@@ -6601,7 +6478,7 @@
         <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6609,25 +6486,25 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C185" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6635,25 +6512,25 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C186" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D186" t="s">
         <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G186" t="s">
         <v>13</v>
       </c>
       <c r="H186" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6661,25 +6538,25 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C187" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F187" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
       </c>
       <c r="H187" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6687,25 +6564,25 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C188" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="D188" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6713,25 +6590,25 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C189" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D189" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6739,25 +6616,25 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C190" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F190" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G190" t="s">
         <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6765,25 +6642,25 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C191" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G191" t="s">
         <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6791,25 +6668,25 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C192" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E192" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
       </c>
       <c r="H192" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6817,25 +6694,25 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C193" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D193" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G193" t="s">
         <v>13</v>
       </c>
       <c r="H193" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6843,25 +6720,25 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C194" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D194" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6869,25 +6746,25 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C195" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D195" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E195" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G195" t="s">
         <v>13</v>
       </c>
       <c r="H195" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6895,25 +6772,25 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C196" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D196" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
       </c>
       <c r="H196" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6921,571 +6798,25 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C197" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D197" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
       </c>
       <c r="H197" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
         <v>444</v>
-      </c>
-      <c r="C198" t="s">
-        <v>445</v>
-      </c>
-      <c r="D198" t="s">
-        <v>63</v>
-      </c>
-      <c r="E198" t="s">
-        <v>16</v>
-      </c>
-      <c r="F198" t="s">
-        <v>34</v>
-      </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>444</v>
-      </c>
-      <c r="C199" t="s">
-        <v>447</v>
-      </c>
-      <c r="D199" t="s">
-        <v>30</v>
-      </c>
-      <c r="E199" t="s">
-        <v>31</v>
-      </c>
-      <c r="F199" t="s">
-        <v>31</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>444</v>
-      </c>
-      <c r="C200" t="s">
-        <v>449</v>
-      </c>
-      <c r="D200" t="s">
-        <v>53</v>
-      </c>
-      <c r="E200" t="s">
-        <v>25</v>
-      </c>
-      <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s">
-        <v>13</v>
-      </c>
-      <c r="H200" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>444</v>
-      </c>
-      <c r="C201" t="s">
-        <v>451</v>
-      </c>
-      <c r="D201" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" t="s">
-        <v>41</v>
-      </c>
-      <c r="F201" t="s">
-        <v>48</v>
-      </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" t="s">
-        <v>444</v>
-      </c>
-      <c r="C202" t="s">
-        <v>453</v>
-      </c>
-      <c r="D202" t="s">
-        <v>24</v>
-      </c>
-      <c r="E202" t="s">
-        <v>41</v>
-      </c>
-      <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s">
-        <v>13</v>
-      </c>
-      <c r="H202" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>444</v>
-      </c>
-      <c r="C203" t="s">
-        <v>455</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" t="s">
-        <v>25</v>
-      </c>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>444</v>
-      </c>
-      <c r="C204" t="s">
-        <v>457</v>
-      </c>
-      <c r="D204" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204" t="s">
-        <v>69</v>
-      </c>
-      <c r="F204" t="s">
-        <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>13</v>
-      </c>
-      <c r="H204" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>459</v>
-      </c>
-      <c r="C205" t="s">
-        <v>460</v>
-      </c>
-      <c r="D205" t="s">
-        <v>63</v>
-      </c>
-      <c r="E205" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" t="s">
-        <v>38</v>
-      </c>
-      <c r="G205" t="s">
-        <v>13</v>
-      </c>
-      <c r="H205" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>459</v>
-      </c>
-      <c r="C206" t="s">
-        <v>172</v>
-      </c>
-      <c r="D206" t="s">
-        <v>53</v>
-      </c>
-      <c r="E206" t="s">
-        <v>34</v>
-      </c>
-      <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s">
-        <v>13</v>
-      </c>
-      <c r="H206" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" t="s">
-        <v>459</v>
-      </c>
-      <c r="C207" t="s">
-        <v>463</v>
-      </c>
-      <c r="D207" t="s">
-        <v>63</v>
-      </c>
-      <c r="E207" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" t="s">
-        <v>38</v>
-      </c>
-      <c r="G207" t="s">
-        <v>13</v>
-      </c>
-      <c r="H207" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208" t="s">
-        <v>459</v>
-      </c>
-      <c r="C208" t="s">
-        <v>465</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s">
-        <v>13</v>
-      </c>
-      <c r="H208" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>459</v>
-      </c>
-      <c r="C209" t="s">
-        <v>467</v>
-      </c>
-      <c r="D209" t="s">
-        <v>63</v>
-      </c>
-      <c r="E209" t="s">
-        <v>45</v>
-      </c>
-      <c r="F209" t="s">
-        <v>69</v>
-      </c>
-      <c r="G209" t="s">
-        <v>13</v>
-      </c>
-      <c r="H209" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>459</v>
-      </c>
-      <c r="C210" t="s">
-        <v>469</v>
-      </c>
-      <c r="D210" t="s">
-        <v>30</v>
-      </c>
-      <c r="E210" t="s">
-        <v>45</v>
-      </c>
-      <c r="F210" t="s">
-        <v>38</v>
-      </c>
-      <c r="G210" t="s">
-        <v>13</v>
-      </c>
-      <c r="H210" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>459</v>
-      </c>
-      <c r="C211" t="s">
-        <v>471</v>
-      </c>
-      <c r="D211" t="s">
-        <v>53</v>
-      </c>
-      <c r="E211" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" t="s">
-        <v>41</v>
-      </c>
-      <c r="G211" t="s">
-        <v>13</v>
-      </c>
-      <c r="H211" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>473</v>
-      </c>
-      <c r="C212" t="s">
-        <v>376</v>
-      </c>
-      <c r="D212" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" t="s">
-        <v>45</v>
-      </c>
-      <c r="F212" t="s">
-        <v>69</v>
-      </c>
-      <c r="G212" t="s">
-        <v>13</v>
-      </c>
-      <c r="H212" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>473</v>
-      </c>
-      <c r="C213" t="s">
-        <v>55</v>
-      </c>
-      <c r="D213" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" t="s">
-        <v>21</v>
-      </c>
-      <c r="F213" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" t="s">
-        <v>13</v>
-      </c>
-      <c r="H213" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>473</v>
-      </c>
-      <c r="C214" t="s">
-        <v>476</v>
-      </c>
-      <c r="D214" t="s">
-        <v>24</v>
-      </c>
-      <c r="E214" t="s">
-        <v>45</v>
-      </c>
-      <c r="F214" t="s">
-        <v>48</v>
-      </c>
-      <c r="G214" t="s">
-        <v>13</v>
-      </c>
-      <c r="H214" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>473</v>
-      </c>
-      <c r="C215" t="s">
-        <v>478</v>
-      </c>
-      <c r="D215" t="s">
-        <v>30</v>
-      </c>
-      <c r="E215" t="s">
-        <v>34</v>
-      </c>
-      <c r="F215" t="s">
-        <v>48</v>
-      </c>
-      <c r="G215" t="s">
-        <v>13</v>
-      </c>
-      <c r="H215" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>473</v>
-      </c>
-      <c r="C216" t="s">
-        <v>480</v>
-      </c>
-      <c r="D216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" t="s">
-        <v>45</v>
-      </c>
-      <c r="F216" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" t="s">
-        <v>13</v>
-      </c>
-      <c r="H216" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>473</v>
-      </c>
-      <c r="C217" t="s">
-        <v>482</v>
-      </c>
-      <c r="D217" t="s">
-        <v>30</v>
-      </c>
-      <c r="E217" t="s">
-        <v>64</v>
-      </c>
-      <c r="F217" t="s">
-        <v>69</v>
-      </c>
-      <c r="G217" t="s">
-        <v>13</v>
-      </c>
-      <c r="H217" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
-        <v>473</v>
-      </c>
-      <c r="C218" t="s">
-        <v>484</v>
-      </c>
-      <c r="D218" t="s">
-        <v>30</v>
-      </c>
-      <c r="E218" t="s">
-        <v>64</v>
-      </c>
-      <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218" t="s">
-        <v>13</v>
-      </c>
-      <c r="H218" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>
